--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C52F54-08B5-429A-BD26-43118034C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C0BD4-707C-4BE7-8392-ECE0E0AF7836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -115,7 +126,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -138,16 +149,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00B050"/>
       </font>
       <fill>
@@ -159,26 +160,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
       <fill>
         <patternFill>
@@ -465,8 +446,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB35" sqref="BB35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5612,7 +5593,7 @@
         <v>121</v>
       </c>
       <c r="H34" s="3">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I34" s="3">
         <v>102</v>
@@ -5767,7 +5748,7 @@
         <v>121</v>
       </c>
       <c r="H35" s="3">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I35" s="3">
         <v>112</v>
@@ -5922,7 +5903,7 @@
         <v>121</v>
       </c>
       <c r="H36" s="3">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I36" s="3">
         <v>112</v>
@@ -6080,7 +6061,7 @@
         <v>121</v>
       </c>
       <c r="I37" s="3">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J37" s="3">
         <v>112</v>
@@ -6182,7 +6163,7 @@
         <v>112</v>
       </c>
       <c r="AQ37" s="3">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AR37" s="3">
         <v>121</v>
@@ -6238,7 +6219,7 @@
         <v>121</v>
       </c>
       <c r="J38" s="3">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K38" s="3">
         <v>112</v>
@@ -6334,7 +6315,7 @@
         <v>112</v>
       </c>
       <c r="AP38" s="3">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AQ38" s="3">
         <v>121</v>
@@ -6832,19 +6813,19 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:AY41">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>121</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>101</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:AY41">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>102</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>112</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>102</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2474925-92F4-4216-957C-A32C4CD6A733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34930EF-E8E7-4E91-9166-643DC4767D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -207,11 +207,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -223,6 +277,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -554,8 +613,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -819,7 +878,7 @@
       <c r="AN2" s="7">
         <v>111</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AO2" s="12">
         <v>111</v>
       </c>
       <c r="AP2" s="4"/>
@@ -954,7 +1013,7 @@
       <c r="AN3" s="7">
         <v>111</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AO3" s="12">
         <v>111</v>
       </c>
       <c r="AP3" s="4"/>
@@ -1089,7 +1148,7 @@
       <c r="AN4" s="7">
         <v>111</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AO4" s="12">
         <v>111</v>
       </c>
       <c r="AP4" s="4"/>
@@ -1224,7 +1283,7 @@
       <c r="AN5" s="7">
         <v>111</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="12">
         <v>111</v>
       </c>
       <c r="AP5" s="4"/>
@@ -1359,7 +1418,7 @@
       <c r="AN6" s="7">
         <v>111</v>
       </c>
-      <c r="AO6" s="7">
+      <c r="AO6" s="12">
         <v>111</v>
       </c>
       <c r="AP6" s="4"/>
@@ -1494,7 +1553,7 @@
       <c r="AN7" s="7">
         <v>111</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AO7" s="12">
         <v>111</v>
       </c>
       <c r="AP7" s="4"/>
@@ -1629,7 +1688,7 @@
       <c r="AN8" s="7">
         <v>111</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO8" s="12">
         <v>111</v>
       </c>
       <c r="AP8" s="4"/>
@@ -1764,7 +1823,7 @@
       <c r="AN9" s="7">
         <v>111</v>
       </c>
-      <c r="AO9" s="7">
+      <c r="AO9" s="12">
         <v>111</v>
       </c>
       <c r="AP9" s="4"/>
@@ -1899,7 +1958,7 @@
       <c r="AN10" s="7">
         <v>111</v>
       </c>
-      <c r="AO10" s="7">
+      <c r="AO10" s="12">
         <v>111</v>
       </c>
       <c r="AP10" s="4"/>
@@ -1942,67 +2001,67 @@
         <v>101</v>
       </c>
       <c r="J11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="K11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="M11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="N11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="O11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="R11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="S11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="T11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="U11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="V11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="W11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="X11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Y11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Z11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AA11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AB11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AC11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AD11" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AE11" s="7">
         <v>111</v>
@@ -2034,7 +2093,7 @@
       <c r="AN11" s="7">
         <v>111</v>
       </c>
-      <c r="AO11" s="7">
+      <c r="AO11" s="12">
         <v>111</v>
       </c>
       <c r="AP11" s="4"/>
@@ -2059,25 +2118,25 @@
         <v>121</v>
       </c>
       <c r="D12" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G12" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H12" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="I12" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J12" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="K12" s="1">
         <v>101</v>
@@ -2169,7 +2228,7 @@
       <c r="AN12" s="7">
         <v>111</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AO12" s="12">
         <v>111</v>
       </c>
       <c r="AP12" s="4"/>
@@ -2304,7 +2363,7 @@
       <c r="AN13" s="7">
         <v>111</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AO13" s="12">
         <v>111</v>
       </c>
       <c r="AP13" s="4"/>
@@ -2439,7 +2498,7 @@
       <c r="AN14" s="7">
         <v>111</v>
       </c>
-      <c r="AO14" s="7">
+      <c r="AO14" s="12">
         <v>111</v>
       </c>
       <c r="AP14" s="4"/>
@@ -2574,7 +2633,7 @@
       <c r="AN15" s="7">
         <v>111</v>
       </c>
-      <c r="AO15" s="7">
+      <c r="AO15" s="12">
         <v>111</v>
       </c>
       <c r="AP15" s="4"/>
@@ -2709,7 +2768,7 @@
       <c r="AN16" s="7">
         <v>111</v>
       </c>
-      <c r="AO16" s="7">
+      <c r="AO16" s="12">
         <v>111</v>
       </c>
       <c r="AP16" s="4"/>
@@ -2844,7 +2903,7 @@
       <c r="AN17" s="7">
         <v>111</v>
       </c>
-      <c r="AO17" s="7">
+      <c r="AO17" s="12">
         <v>111</v>
       </c>
       <c r="AP17" s="4"/>
@@ -2979,7 +3038,7 @@
       <c r="AN18" s="7">
         <v>111</v>
       </c>
-      <c r="AO18" s="7">
+      <c r="AO18" s="12">
         <v>111</v>
       </c>
       <c r="AP18" s="4"/>
@@ -3114,7 +3173,7 @@
       <c r="AN19" s="7">
         <v>111</v>
       </c>
-      <c r="AO19" s="7">
+      <c r="AO19" s="12">
         <v>111</v>
       </c>
       <c r="AP19" s="4"/>
@@ -3249,7 +3308,7 @@
       <c r="AN20" s="1">
         <v>121</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AO20" s="13">
         <v>121</v>
       </c>
       <c r="AP20" s="4"/>
@@ -3384,7 +3443,7 @@
       <c r="AN21" s="1">
         <v>121</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AO21" s="13">
         <v>121</v>
       </c>
       <c r="AP21" s="4"/>
@@ -3519,7 +3578,7 @@
       <c r="AN22" s="1">
         <v>121</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AO22" s="13">
         <v>121</v>
       </c>
       <c r="AP22" s="4"/>
@@ -3654,7 +3713,7 @@
       <c r="AN23" s="1">
         <v>121</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AO23" s="13">
         <v>121</v>
       </c>
       <c r="AP23" s="4"/>
@@ -3789,7 +3848,7 @@
       <c r="AN24" s="1">
         <v>121</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AO24" s="13">
         <v>121</v>
       </c>
       <c r="AP24" s="4"/>
@@ -3924,7 +3983,7 @@
       <c r="AN25" s="7">
         <v>112</v>
       </c>
-      <c r="AO25" s="7">
+      <c r="AO25" s="12">
         <v>112</v>
       </c>
       <c r="AP25" s="4"/>
@@ -4059,7 +4118,7 @@
       <c r="AN26" s="7">
         <v>112</v>
       </c>
-      <c r="AO26" s="7">
+      <c r="AO26" s="12">
         <v>112</v>
       </c>
       <c r="AP26" s="4"/>
@@ -4073,128 +4132,128 @@
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
     </row>
-    <row r="27" spans="1:51">
-      <c r="A27" s="2">
+    <row r="27" spans="1:51" ht="18.600000000000001" thickBot="1">
+      <c r="A27" s="5">
+        <v>121</v>
+      </c>
+      <c r="B27" s="3">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3">
+        <v>121</v>
+      </c>
+      <c r="D27" s="3">
+        <v>121</v>
+      </c>
+      <c r="E27" s="3">
+        <v>121</v>
+      </c>
+      <c r="F27" s="3">
+        <v>121</v>
+      </c>
+      <c r="G27" s="3">
+        <v>121</v>
+      </c>
+      <c r="H27" s="3">
+        <v>121</v>
+      </c>
+      <c r="I27" s="3">
+        <v>121</v>
+      </c>
+      <c r="J27" s="3">
+        <v>121</v>
+      </c>
+      <c r="K27" s="3">
+        <v>121</v>
+      </c>
+      <c r="L27" s="3">
+        <v>121</v>
+      </c>
+      <c r="M27" s="3">
+        <v>121</v>
+      </c>
+      <c r="N27" s="3">
+        <v>121</v>
+      </c>
+      <c r="O27" s="3">
+        <v>121</v>
+      </c>
+      <c r="P27" s="3">
+        <v>121</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>121</v>
+      </c>
+      <c r="R27" s="3">
+        <v>121</v>
+      </c>
+      <c r="S27" s="3">
+        <v>121</v>
+      </c>
+      <c r="T27" s="3">
+        <v>121</v>
+      </c>
+      <c r="U27" s="3">
+        <v>121</v>
+      </c>
+      <c r="V27" s="3">
+        <v>121</v>
+      </c>
+      <c r="W27" s="3">
+        <v>121</v>
+      </c>
+      <c r="X27" s="3">
+        <v>121</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>121</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>121</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>121</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>121</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>121</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>121</v>
+      </c>
+      <c r="AE27" s="14">
         <v>112</v>
       </c>
-      <c r="B27" s="1">
+      <c r="AF27" s="14">
         <v>112</v>
       </c>
-      <c r="C27" s="1">
+      <c r="AG27" s="14">
         <v>112</v>
       </c>
-      <c r="D27" s="1">
+      <c r="AH27" s="14">
         <v>112</v>
       </c>
-      <c r="E27" s="1">
+      <c r="AI27" s="14">
         <v>112</v>
       </c>
-      <c r="F27" s="1">
+      <c r="AJ27" s="14">
         <v>112</v>
       </c>
-      <c r="G27" s="1">
+      <c r="AK27" s="14">
         <v>112</v>
       </c>
-      <c r="H27" s="1">
+      <c r="AL27" s="14">
         <v>112</v>
       </c>
-      <c r="I27" s="1">
-        <v>102</v>
-      </c>
-      <c r="J27" s="1">
-        <v>102</v>
-      </c>
-      <c r="K27" s="1">
-        <v>102</v>
-      </c>
-      <c r="L27" s="1">
-        <v>102</v>
-      </c>
-      <c r="M27" s="1">
-        <v>102</v>
-      </c>
-      <c r="N27" s="1">
-        <v>102</v>
-      </c>
-      <c r="O27" s="1">
-        <v>101</v>
-      </c>
-      <c r="P27" s="1">
-        <v>101</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>101</v>
-      </c>
-      <c r="R27" s="1">
-        <v>101</v>
-      </c>
-      <c r="S27" s="1">
-        <v>101</v>
-      </c>
-      <c r="T27" s="1">
-        <v>101</v>
-      </c>
-      <c r="U27" s="1">
-        <v>101</v>
-      </c>
-      <c r="V27" s="1">
-        <v>101</v>
-      </c>
-      <c r="W27" s="1">
-        <v>101</v>
-      </c>
-      <c r="X27" s="1">
-        <v>101</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>101</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>101</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>101</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE27" s="7">
+      <c r="AM27" s="14">
         <v>112</v>
       </c>
-      <c r="AF27" s="7">
+      <c r="AN27" s="14">
         <v>112</v>
       </c>
-      <c r="AG27" s="7">
-        <v>112</v>
-      </c>
-      <c r="AH27" s="7">
-        <v>112</v>
-      </c>
-      <c r="AI27" s="7">
-        <v>112</v>
-      </c>
-      <c r="AJ27" s="7">
-        <v>112</v>
-      </c>
-      <c r="AK27" s="7">
-        <v>112</v>
-      </c>
-      <c r="AL27" s="7">
-        <v>112</v>
-      </c>
-      <c r="AM27" s="7">
-        <v>112</v>
-      </c>
-      <c r="AN27" s="7">
-        <v>112</v>
-      </c>
-      <c r="AO27" s="7">
+      <c r="AO27" s="15">
         <v>112</v>
       </c>
       <c r="AP27" s="4"/>
@@ -4209,129 +4268,47 @@
       <c r="AY27" s="4"/>
     </row>
     <row r="28" spans="1:51">
-      <c r="A28" s="2">
-        <v>112</v>
-      </c>
-      <c r="B28" s="1">
-        <v>112</v>
-      </c>
-      <c r="C28" s="1">
-        <v>112</v>
-      </c>
-      <c r="D28" s="1">
-        <v>112</v>
-      </c>
-      <c r="E28" s="1">
-        <v>112</v>
-      </c>
-      <c r="F28" s="1">
-        <v>112</v>
-      </c>
-      <c r="G28" s="1">
-        <v>112</v>
-      </c>
-      <c r="H28" s="1">
-        <v>112</v>
-      </c>
-      <c r="I28" s="1">
-        <v>112</v>
-      </c>
-      <c r="J28" s="1">
-        <v>102</v>
-      </c>
-      <c r="K28" s="1">
-        <v>102</v>
-      </c>
-      <c r="L28" s="1">
-        <v>102</v>
-      </c>
-      <c r="M28" s="1">
-        <v>102</v>
-      </c>
-      <c r="N28" s="1">
-        <v>102</v>
-      </c>
-      <c r="O28" s="1">
-        <v>102</v>
-      </c>
-      <c r="P28" s="1">
-        <v>102</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>101</v>
-      </c>
-      <c r="R28" s="1">
-        <v>101</v>
-      </c>
-      <c r="S28" s="1">
-        <v>101</v>
-      </c>
-      <c r="T28" s="1">
-        <v>101</v>
-      </c>
-      <c r="U28" s="1">
-        <v>101</v>
-      </c>
-      <c r="V28" s="1">
-        <v>101</v>
-      </c>
-      <c r="W28" s="1">
-        <v>101</v>
-      </c>
-      <c r="X28" s="1">
-        <v>101</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>101</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>101</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>101</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AF28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AG28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AH28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AI28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AJ28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AK28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AL28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AM28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AN28" s="7">
-        <v>112</v>
-      </c>
-      <c r="AO28" s="7">
-        <v>112</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
@@ -4344,129 +4321,47 @@
       <c r="AY28" s="4"/>
     </row>
     <row r="29" spans="1:51">
-      <c r="A29" s="2">
-        <v>112</v>
-      </c>
-      <c r="B29" s="1">
-        <v>112</v>
-      </c>
-      <c r="C29" s="1">
-        <v>112</v>
-      </c>
-      <c r="D29" s="1">
-        <v>112</v>
-      </c>
-      <c r="E29" s="1">
-        <v>112</v>
-      </c>
-      <c r="F29" s="1">
-        <v>112</v>
-      </c>
-      <c r="G29" s="1">
-        <v>112</v>
-      </c>
-      <c r="H29" s="1">
-        <v>112</v>
-      </c>
-      <c r="I29" s="1">
-        <v>112</v>
-      </c>
-      <c r="J29" s="1">
-        <v>112</v>
-      </c>
-      <c r="K29" s="1">
-        <v>112</v>
-      </c>
-      <c r="L29" s="1">
-        <v>112</v>
-      </c>
-      <c r="M29" s="1">
-        <v>102</v>
-      </c>
-      <c r="N29" s="1">
-        <v>102</v>
-      </c>
-      <c r="O29" s="1">
-        <v>102</v>
-      </c>
-      <c r="P29" s="1">
-        <v>102</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>102</v>
-      </c>
-      <c r="R29" s="1">
-        <v>102</v>
-      </c>
-      <c r="S29" s="1">
-        <v>101</v>
-      </c>
-      <c r="T29" s="1">
-        <v>101</v>
-      </c>
-      <c r="U29" s="1">
-        <v>101</v>
-      </c>
-      <c r="V29" s="1">
-        <v>101</v>
-      </c>
-      <c r="W29" s="1">
-        <v>101</v>
-      </c>
-      <c r="X29" s="1">
-        <v>101</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>101</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>101</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>101</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AF29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AG29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AH29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AI29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AJ29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AK29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AL29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AM29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AN29" s="7">
-        <v>112</v>
-      </c>
-      <c r="AO29" s="7">
-        <v>112</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
@@ -4478,130 +4373,48 @@
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
     </row>
-    <row r="30" spans="1:51" ht="18.600000000000001" thickBot="1">
-      <c r="A30" s="5">
-        <v>112</v>
-      </c>
-      <c r="B30" s="3">
-        <v>112</v>
-      </c>
-      <c r="C30" s="3">
-        <v>112</v>
-      </c>
-      <c r="D30" s="3">
-        <v>112</v>
-      </c>
-      <c r="E30" s="3">
-        <v>112</v>
-      </c>
-      <c r="F30" s="3">
-        <v>112</v>
-      </c>
-      <c r="G30" s="3">
-        <v>112</v>
-      </c>
-      <c r="H30" s="3">
-        <v>112</v>
-      </c>
-      <c r="I30" s="3">
-        <v>112</v>
-      </c>
-      <c r="J30" s="3">
-        <v>112</v>
-      </c>
-      <c r="K30" s="3">
-        <v>112</v>
-      </c>
-      <c r="L30" s="3">
-        <v>112</v>
-      </c>
-      <c r="M30" s="3">
-        <v>112</v>
-      </c>
-      <c r="N30" s="3">
-        <v>102</v>
-      </c>
-      <c r="O30" s="3">
-        <v>102</v>
-      </c>
-      <c r="P30" s="3">
-        <v>102</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>102</v>
-      </c>
-      <c r="R30" s="3">
-        <v>102</v>
-      </c>
-      <c r="S30" s="3">
-        <v>102</v>
-      </c>
-      <c r="T30" s="3">
-        <v>101</v>
-      </c>
-      <c r="U30" s="3">
-        <v>101</v>
-      </c>
-      <c r="V30" s="3">
-        <v>101</v>
-      </c>
-      <c r="W30" s="3">
-        <v>101</v>
-      </c>
-      <c r="X30" s="3">
-        <v>101</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>101</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>101</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>101</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>101</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>101</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>101</v>
-      </c>
-      <c r="AE30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AF30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AG30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AH30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AI30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AJ30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AK30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AL30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AM30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AN30" s="7">
-        <v>112</v>
-      </c>
-      <c r="AO30" s="7">
-        <v>112</v>
-      </c>
+    <row r="30" spans="1:51">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
@@ -5203,7 +5016,7 @@
       <formula>111</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP1:AY1 A2:AO19 AJ2:AY24 D20:AO20 A20:C21 AE20:AO24 D21:U21 V21:AO24 A22:U34 P31:V31 A35:AY41 V25:AY34">
+  <conditionalFormatting sqref="AP1:AY1 AJ2:AY24 D20:AO20 A20:C21 AE20:AO24 D21:U21 V21:AO24 V25:AY34 P31:V31 A35:AY41 A2:AO19 E27:AD27 A22:U34">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>121</formula>
     </cfRule>
@@ -5211,7 +5024,7 @@
       <formula>101</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP1:AY1 AJ2:AY24 A12:AI19 D20:AO20 A20:C21 D21:U21 V21:AO24 A22:U34 P31:V31 A35:AY41 V25:AY34">
+  <conditionalFormatting sqref="AP1:AY1 AJ2:AY24 D20:AO20 A20:C21 D21:U21 V21:AO24 V25:AY34 P31:V31 A35:AY41 A12:AI19 E27:AD27 A22:U34">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>112</formula>
     </cfRule>

--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34930EF-E8E7-4E91-9166-643DC4767D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EEED81-4AB5-4E0A-8F4D-A68FBCBE0AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -86,77 +86,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -211,10 +140,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -236,13 +180,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -255,8 +216,36 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -265,28 +254,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -309,6 +306,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
       <fill>
@@ -316,23 +330,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,7 +611,7 @@
   <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+      <selection activeCell="AC14" sqref="S14:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -623,698 +620,758 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="8">
+      <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="4">
         <v>0</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="4">
         <v>0</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="4">
         <v>0</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="4">
         <v>0</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="4">
         <v>0</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="4">
         <v>0</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="4">
         <v>0</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="4">
         <v>0</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="4">
         <v>0</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="4">
         <v>0</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="4">
         <v>0</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="4">
         <v>0</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="4">
         <v>0</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="4">
         <v>0</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="4">
         <v>0</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="4">
         <v>0</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="4">
         <v>0</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="4">
         <v>0</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="4">
         <v>0</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="4">
         <v>0</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="4">
         <v>0</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="4">
         <v>0</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="4">
         <v>0</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="4">
         <v>0</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="4">
         <v>0</v>
       </c>
-      <c r="AA1" s="9">
+      <c r="AA1" s="4">
         <v>0</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AB1" s="4">
         <v>0</v>
       </c>
-      <c r="AC1" s="9">
+      <c r="AC1" s="4">
         <v>0</v>
       </c>
-      <c r="AD1" s="9">
+      <c r="AD1" s="4">
         <v>0</v>
       </c>
-      <c r="AE1" s="9">
+      <c r="AE1" s="4">
         <v>0</v>
       </c>
-      <c r="AF1" s="9">
+      <c r="AF1" s="4">
         <v>0</v>
       </c>
-      <c r="AG1" s="9">
+      <c r="AG1" s="4">
         <v>0</v>
       </c>
-      <c r="AH1" s="9">
+      <c r="AH1" s="4">
         <v>0</v>
       </c>
-      <c r="AI1" s="9">
+      <c r="AI1" s="4">
         <v>0</v>
       </c>
-      <c r="AJ1" s="9">
+      <c r="AJ1" s="4">
         <v>0</v>
       </c>
-      <c r="AK1" s="9">
+      <c r="AK1" s="4">
         <v>0</v>
       </c>
-      <c r="AL1" s="9">
+      <c r="AL1" s="4">
         <v>0</v>
       </c>
-      <c r="AM1" s="9">
+      <c r="AM1" s="4">
         <v>0</v>
       </c>
-      <c r="AN1" s="9">
+      <c r="AN1" s="4">
         <v>0</v>
       </c>
-      <c r="AO1" s="10">
+      <c r="AO1" s="4">
         <v>0</v>
       </c>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
+      <c r="AP1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
     </row>
     <row r="2" spans="1:51">
-      <c r="A2" s="6">
-        <v>101</v>
-      </c>
-      <c r="B2" s="7">
-        <v>101</v>
-      </c>
-      <c r="C2" s="7">
-        <v>101</v>
-      </c>
-      <c r="D2" s="7">
-        <v>101</v>
-      </c>
-      <c r="E2" s="7">
-        <v>101</v>
-      </c>
-      <c r="F2" s="7">
-        <v>101</v>
-      </c>
-      <c r="G2" s="7">
-        <v>101</v>
-      </c>
-      <c r="H2" s="7">
-        <v>101</v>
-      </c>
-      <c r="I2" s="7">
-        <v>101</v>
-      </c>
-      <c r="J2" s="7">
-        <v>101</v>
-      </c>
-      <c r="K2" s="7">
-        <v>101</v>
-      </c>
-      <c r="L2" s="7">
-        <v>101</v>
-      </c>
-      <c r="M2" s="7">
-        <v>101</v>
-      </c>
-      <c r="N2" s="7">
-        <v>101</v>
-      </c>
-      <c r="O2" s="7">
-        <v>101</v>
-      </c>
-      <c r="P2" s="7">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>101</v>
-      </c>
-      <c r="R2" s="7">
-        <v>101</v>
-      </c>
-      <c r="S2" s="7">
-        <v>101</v>
-      </c>
-      <c r="T2" s="7">
-        <v>101</v>
-      </c>
-      <c r="U2" s="7">
-        <v>101</v>
-      </c>
-      <c r="V2" s="7">
-        <v>101</v>
-      </c>
-      <c r="W2" s="7">
-        <v>101</v>
-      </c>
-      <c r="X2" s="7">
-        <v>101</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>101</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>101</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>101</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>101</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>101</v>
-      </c>
-      <c r="AE2" s="7">
+      <c r="A2" s="12">
+        <v>103</v>
+      </c>
+      <c r="B2" s="6">
+        <v>103</v>
+      </c>
+      <c r="C2" s="6">
+        <v>103</v>
+      </c>
+      <c r="D2" s="6">
+        <v>103</v>
+      </c>
+      <c r="E2" s="6">
+        <v>103</v>
+      </c>
+      <c r="F2" s="6">
+        <v>103</v>
+      </c>
+      <c r="G2" s="6">
+        <v>103</v>
+      </c>
+      <c r="H2" s="6">
+        <v>103</v>
+      </c>
+      <c r="I2" s="6">
+        <v>103</v>
+      </c>
+      <c r="J2" s="6">
+        <v>103</v>
+      </c>
+      <c r="K2" s="6">
+        <v>103</v>
+      </c>
+      <c r="L2" s="6">
+        <v>103</v>
+      </c>
+      <c r="M2" s="6">
+        <v>103</v>
+      </c>
+      <c r="N2" s="6">
+        <v>103</v>
+      </c>
+      <c r="O2" s="6">
+        <v>103</v>
+      </c>
+      <c r="P2" s="6">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>103</v>
+      </c>
+      <c r="R2" s="6">
+        <v>103</v>
+      </c>
+      <c r="S2" s="6">
+        <v>103</v>
+      </c>
+      <c r="T2" s="6">
+        <v>103</v>
+      </c>
+      <c r="U2" s="6">
+        <v>103</v>
+      </c>
+      <c r="V2" s="6">
+        <v>103</v>
+      </c>
+      <c r="W2" s="6">
+        <v>103</v>
+      </c>
+      <c r="X2" s="6">
+        <v>103</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>103</v>
+      </c>
+      <c r="AQ2" s="6">
         <v>111</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AR2" s="6">
         <v>111</v>
       </c>
-      <c r="AG2" s="7">
+      <c r="AS2" s="6">
         <v>111</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AT2" s="6">
         <v>111</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AU2" s="13">
         <v>111</v>
       </c>
-      <c r="AJ2" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK2" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL2" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM2" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN2" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO2" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="2">
-        <v>101</v>
+      <c r="A3" s="7">
+        <v>103</v>
       </c>
       <c r="B3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="X3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Z3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AA3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC3" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD3" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE3" s="7">
+        <v>103</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AR3" s="6">
         <v>111</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AS3" s="6">
         <v>111</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AT3" s="1">
         <v>111</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AU3" s="8">
         <v>111</v>
       </c>
-      <c r="AI3" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK3" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL3" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM3" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN3" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO3" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="2">
-        <v>101</v>
+      <c r="A4" s="7">
+        <v>103</v>
       </c>
       <c r="B4" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="L4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="N4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="P4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="R4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="S4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="U4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="V4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="W4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="X4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Y4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Z4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AA4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AB4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AC4" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD4" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE4" s="7">
+        <v>112</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>103</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>103</v>
+      </c>
+      <c r="AS4" s="6">
         <v>111</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AT4" s="6">
         <v>111</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AU4" s="8">
         <v>111</v>
       </c>
-      <c r="AH4" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI4" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO4" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="2">
-        <v>101</v>
+      <c r="A5" s="7">
+        <v>103</v>
       </c>
       <c r="B5" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="L5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="N5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="P5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="R5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="S5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="T5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="U5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="V5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="W5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="X5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Y5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Z5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AA5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AB5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AC5" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD5" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE5" s="7">
+        <v>112</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>103</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>103</v>
+      </c>
+      <c r="AT5" s="6">
         <v>111</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AU5" s="1">
         <v>111</v>
       </c>
-      <c r="AG5" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM5" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO5" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="2">
-        <v>101</v>
+      <c r="A6" s="7">
+        <v>103</v>
       </c>
       <c r="B6" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1">
         <v>101</v>
@@ -1380,73 +1437,85 @@
         <v>101</v>
       </c>
       <c r="AB6" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AC6" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD6" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE6" s="7">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>103</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>103</v>
+      </c>
+      <c r="AU6" s="1">
         <v>111</v>
       </c>
-      <c r="AF6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO6" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
     </row>
     <row r="7" spans="1:51">
-      <c r="A7" s="2">
-        <v>101</v>
+      <c r="A7" s="7">
+        <v>103</v>
       </c>
       <c r="B7" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F7" s="1">
         <v>101</v>
@@ -1518,67 +1587,79 @@
         <v>101</v>
       </c>
       <c r="AC7" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD7" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO7" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>103</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>103</v>
+      </c>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
     </row>
     <row r="8" spans="1:51">
-      <c r="A8" s="2">
-        <v>101</v>
+      <c r="A8" s="7">
+        <v>103</v>
       </c>
       <c r="B8" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1">
         <v>101</v>
@@ -1656,64 +1737,76 @@
         <v>101</v>
       </c>
       <c r="AD8" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO8" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>103</v>
+      </c>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="2">
-        <v>101</v>
+      <c r="A9" s="7">
+        <v>103</v>
       </c>
       <c r="B9" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D9" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1">
         <v>101</v>
@@ -1791,64 +1884,76 @@
         <v>101</v>
       </c>
       <c r="AD9" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO9" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="2">
-        <v>101</v>
+      <c r="A10" s="7">
+        <v>103</v>
       </c>
       <c r="B10" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1">
         <v>101</v>
@@ -1926,64 +2031,76 @@
         <v>101</v>
       </c>
       <c r="AD10" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN10" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO10" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
     </row>
     <row r="11" spans="1:51">
-      <c r="A11" s="2">
-        <v>101</v>
+      <c r="A11" s="7">
+        <v>103</v>
       </c>
       <c r="B11" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1">
         <v>101</v>
@@ -2061,64 +2178,76 @@
         <v>101</v>
       </c>
       <c r="AD11" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN11" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO11" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="2">
-        <v>121</v>
+      <c r="A12" s="7">
+        <v>103</v>
       </c>
       <c r="B12" s="1">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1">
         <v>101</v>
@@ -2196,64 +2325,76 @@
         <v>101</v>
       </c>
       <c r="AD12" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN12" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO12" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU12" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="2">
-        <v>101</v>
+      <c r="A13" s="7">
+        <v>103</v>
       </c>
       <c r="B13" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1">
         <v>101</v>
@@ -2331,64 +2472,76 @@
         <v>101</v>
       </c>
       <c r="AD13" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN13" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO13" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="2">
-        <v>101</v>
+      <c r="A14" s="7">
+        <v>103</v>
       </c>
       <c r="B14" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1">
         <v>101</v>
@@ -2433,97 +2586,109 @@
         <v>101</v>
       </c>
       <c r="S14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="T14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="U14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="V14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="W14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="X14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Y14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Z14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AA14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AB14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AC14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AD14" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN14" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO14" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU14" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
     </row>
     <row r="15" spans="1:51">
-      <c r="A15" s="2">
-        <v>101</v>
+      <c r="A15" s="7">
+        <v>103</v>
       </c>
       <c r="B15" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1">
         <v>101</v>
@@ -2601,64 +2766,76 @@
         <v>101</v>
       </c>
       <c r="AD15" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN15" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO15" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU15" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
     </row>
     <row r="16" spans="1:51">
-      <c r="A16" s="2">
-        <v>101</v>
+      <c r="A16" s="7">
+        <v>103</v>
       </c>
       <c r="B16" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E16" s="1">
         <v>101</v>
@@ -2736,64 +2913,76 @@
         <v>101</v>
       </c>
       <c r="AD16" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO16" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU16" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
     </row>
     <row r="17" spans="1:51">
-      <c r="A17" s="2">
-        <v>101</v>
+      <c r="A17" s="7">
+        <v>103</v>
       </c>
       <c r="B17" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D17" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1">
         <v>101</v>
@@ -2871,64 +3060,76 @@
         <v>101</v>
       </c>
       <c r="AD17" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN17" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO17" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>121</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>121</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU17" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
     </row>
     <row r="18" spans="1:51">
-      <c r="A18" s="2">
-        <v>101</v>
+      <c r="A18" s="7">
+        <v>103</v>
       </c>
       <c r="B18" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1">
         <v>101</v>
@@ -3006,64 +3207,76 @@
         <v>101</v>
       </c>
       <c r="AD18" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN18" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO18" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>121</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>121</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU18" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
     </row>
     <row r="19" spans="1:51">
-      <c r="A19" s="2">
-        <v>101</v>
+      <c r="A19" s="7">
+        <v>103</v>
       </c>
       <c r="B19" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E19" s="1">
         <v>101</v>
@@ -3143,62 +3356,74 @@
       <c r="AD19" s="1">
         <v>101</v>
       </c>
-      <c r="AE19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AJ19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AL19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AM19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AN19" s="7">
-        <v>111</v>
-      </c>
-      <c r="AO19" s="12">
-        <v>111</v>
-      </c>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
+      <c r="AE19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>121</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>121</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU19" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
     </row>
     <row r="20" spans="1:51">
-      <c r="A20" s="2">
-        <v>102</v>
+      <c r="A20" s="7">
+        <v>103</v>
       </c>
       <c r="B20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E20" s="1">
         <v>101</v>
@@ -3279,64 +3504,76 @@
         <v>101</v>
       </c>
       <c r="AE20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AF20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AG20" s="1">
         <v>121</v>
       </c>
       <c r="AH20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AI20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AJ20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AK20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AL20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AM20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AN20" s="1">
-        <v>121</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>121</v>
-      </c>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU20" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
     </row>
     <row r="21" spans="1:51">
-      <c r="A21" s="2">
-        <v>102</v>
+      <c r="A21" s="7">
+        <v>103</v>
       </c>
       <c r="B21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E21" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1">
         <v>101</v>
@@ -3414,67 +3651,79 @@
         <v>101</v>
       </c>
       <c r="AE21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AF21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AG21" s="1">
         <v>121</v>
       </c>
       <c r="AH21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AI21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AJ21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AK21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AL21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AM21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AN21" s="1">
-        <v>121</v>
-      </c>
-      <c r="AO21" s="13">
-        <v>121</v>
-      </c>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU21" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
     </row>
     <row r="22" spans="1:51">
-      <c r="A22" s="2">
-        <v>102</v>
+      <c r="A22" s="7">
+        <v>103</v>
       </c>
       <c r="B22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E22" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G22" s="1">
         <v>101</v>
@@ -3549,70 +3798,82 @@
         <v>101</v>
       </c>
       <c r="AE22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AF22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AG22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AH22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AI22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AJ22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AK22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AL22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AM22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AN22" s="1">
-        <v>121</v>
-      </c>
-      <c r="AO22" s="13">
-        <v>121</v>
-      </c>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU22" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
     </row>
     <row r="23" spans="1:51">
-      <c r="A23" s="2">
-        <v>102</v>
+      <c r="A23" s="7">
+        <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E23" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H23" s="1">
         <v>101</v>
@@ -3687,73 +3948,85 @@
         <v>121</v>
       </c>
       <c r="AF23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AG23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AH23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AI23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AJ23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AK23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AL23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AM23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AN23" s="1">
-        <v>121</v>
-      </c>
-      <c r="AO23" s="13">
-        <v>121</v>
-      </c>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU23" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
     </row>
     <row r="24" spans="1:51">
-      <c r="A24" s="2">
-        <v>112</v>
+      <c r="A24" s="7">
+        <v>103</v>
       </c>
       <c r="B24" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D24" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E24" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="G24" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H24" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I24" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J24" s="1">
         <v>101</v>
@@ -3822,52 +4095,64 @@
         <v>121</v>
       </c>
       <c r="AF24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AG24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AH24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AI24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AJ24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AK24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AL24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AM24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AN24" s="1">
-        <v>121</v>
-      </c>
-      <c r="AO24" s="13">
-        <v>121</v>
-      </c>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AU24" s="8">
+        <v>101</v>
+      </c>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
     </row>
     <row r="25" spans="1:51">
-      <c r="A25" s="2">
-        <v>112</v>
+      <c r="A25" s="7">
+        <v>103</v>
       </c>
       <c r="B25" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1">
         <v>112</v>
@@ -3876,25 +4161,25 @@
         <v>112</v>
       </c>
       <c r="E25" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="G25" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H25" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I25" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J25" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25" s="1">
         <v>101</v>
@@ -3951,58 +4236,70 @@
         <v>101</v>
       </c>
       <c r="AD25" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AF25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AG25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AH25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AI25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AJ25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AK25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AL25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AM25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AN25" s="7">
-        <v>112</v>
-      </c>
-      <c r="AO25" s="12">
-        <v>112</v>
-      </c>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU25" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
     </row>
     <row r="26" spans="1:51">
-      <c r="A26" s="2">
-        <v>112</v>
+      <c r="A26" s="7">
+        <v>103</v>
       </c>
       <c r="B26" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1">
         <v>112</v>
@@ -4011,31 +4308,31 @@
         <v>112</v>
       </c>
       <c r="E26" s="1">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G26" s="1">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H26" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I26" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J26" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L26" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M26" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N26" s="1">
         <v>101</v>
@@ -4086,950 +4383,1069 @@
         <v>101</v>
       </c>
       <c r="AD26" s="1">
-        <v>101</v>
-      </c>
-      <c r="AE26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AF26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AG26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AH26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AI26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AJ26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AK26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AL26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AM26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AN26" s="7">
-        <v>112</v>
-      </c>
-      <c r="AO26" s="12">
-        <v>112</v>
-      </c>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU26" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
     </row>
-    <row r="27" spans="1:51" ht="18.600000000000001" thickBot="1">
-      <c r="A27" s="5">
+    <row r="27" spans="1:51">
+      <c r="A27" s="7">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1">
+        <v>112</v>
+      </c>
+      <c r="E27" s="1">
         <v>121</v>
       </c>
-      <c r="B27" s="3">
+      <c r="F27" s="1">
         <v>121</v>
       </c>
-      <c r="C27" s="3">
+      <c r="G27" s="1">
         <v>121</v>
       </c>
-      <c r="D27" s="3">
+      <c r="H27" s="1">
         <v>121</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="1">
         <v>121</v>
       </c>
-      <c r="F27" s="3">
-        <v>121</v>
-      </c>
-      <c r="G27" s="3">
-        <v>121</v>
-      </c>
-      <c r="H27" s="3">
-        <v>121</v>
-      </c>
-      <c r="I27" s="3">
-        <v>121</v>
-      </c>
-      <c r="J27" s="3">
-        <v>121</v>
-      </c>
-      <c r="K27" s="3">
-        <v>121</v>
-      </c>
-      <c r="L27" s="3">
-        <v>121</v>
-      </c>
-      <c r="M27" s="3">
-        <v>121</v>
-      </c>
-      <c r="N27" s="3">
-        <v>121</v>
-      </c>
-      <c r="O27" s="3">
-        <v>121</v>
-      </c>
-      <c r="P27" s="3">
-        <v>121</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>121</v>
-      </c>
-      <c r="R27" s="3">
-        <v>121</v>
-      </c>
-      <c r="S27" s="3">
-        <v>121</v>
-      </c>
-      <c r="T27" s="3">
-        <v>121</v>
-      </c>
-      <c r="U27" s="3">
-        <v>121</v>
-      </c>
-      <c r="V27" s="3">
-        <v>121</v>
-      </c>
-      <c r="W27" s="3">
-        <v>121</v>
-      </c>
-      <c r="X27" s="3">
-        <v>121</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>121</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>121</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>121</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>121</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>121</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>121</v>
-      </c>
-      <c r="AE27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AF27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AG27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AH27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AI27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AJ27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AK27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AL27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AM27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AN27" s="14">
-        <v>112</v>
-      </c>
-      <c r="AO27" s="15">
-        <v>112</v>
-      </c>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
+      <c r="J27" s="1">
+        <v>101</v>
+      </c>
+      <c r="K27" s="1">
+        <v>101</v>
+      </c>
+      <c r="L27" s="1">
+        <v>101</v>
+      </c>
+      <c r="M27" s="1">
+        <v>101</v>
+      </c>
+      <c r="N27" s="1">
+        <v>101</v>
+      </c>
+      <c r="O27" s="1">
+        <v>101</v>
+      </c>
+      <c r="P27" s="1">
+        <v>101</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>101</v>
+      </c>
+      <c r="R27" s="1">
+        <v>101</v>
+      </c>
+      <c r="S27" s="1">
+        <v>101</v>
+      </c>
+      <c r="T27" s="1">
+        <v>101</v>
+      </c>
+      <c r="U27" s="1">
+        <v>101</v>
+      </c>
+      <c r="V27" s="1">
+        <v>101</v>
+      </c>
+      <c r="W27" s="1">
+        <v>101</v>
+      </c>
+      <c r="X27" s="1">
+        <v>101</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>101</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>101</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>101</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>101</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU27" s="8">
+        <v>112</v>
+      </c>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
     </row>
-    <row r="28" spans="1:51">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
+    <row r="28" spans="1:51" ht="18.600000000000001" thickBot="1">
+      <c r="A28" s="9">
+        <v>103</v>
+      </c>
+      <c r="B28" s="10">
+        <v>103</v>
+      </c>
+      <c r="C28" s="10">
+        <v>103</v>
+      </c>
+      <c r="D28" s="10">
+        <v>103</v>
+      </c>
+      <c r="E28" s="10">
+        <v>103</v>
+      </c>
+      <c r="F28" s="10">
+        <v>103</v>
+      </c>
+      <c r="G28" s="10">
+        <v>103</v>
+      </c>
+      <c r="H28" s="10">
+        <v>103</v>
+      </c>
+      <c r="I28" s="10">
+        <v>103</v>
+      </c>
+      <c r="J28" s="10">
+        <v>103</v>
+      </c>
+      <c r="K28" s="10">
+        <v>103</v>
+      </c>
+      <c r="L28" s="10">
+        <v>103</v>
+      </c>
+      <c r="M28" s="10">
+        <v>103</v>
+      </c>
+      <c r="N28" s="10">
+        <v>103</v>
+      </c>
+      <c r="O28" s="10">
+        <v>103</v>
+      </c>
+      <c r="P28" s="10">
+        <v>103</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>103</v>
+      </c>
+      <c r="R28" s="10">
+        <v>103</v>
+      </c>
+      <c r="S28" s="10">
+        <v>103</v>
+      </c>
+      <c r="T28" s="10">
+        <v>103</v>
+      </c>
+      <c r="U28" s="10">
+        <v>103</v>
+      </c>
+      <c r="V28" s="10">
+        <v>103</v>
+      </c>
+      <c r="W28" s="10">
+        <v>103</v>
+      </c>
+      <c r="X28" s="10">
+        <v>103</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>103</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AD28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AG28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AH28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AI28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AJ28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AK28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AN28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AQ28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AR28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AS28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AT28" s="10">
+        <v>103</v>
+      </c>
+      <c r="AU28" s="11">
+        <v>103</v>
+      </c>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
     </row>
     <row r="29" spans="1:51">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
-      <c r="AY29" s="4"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
     </row>
     <row r="30" spans="1:51">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="4"/>
-      <c r="AY30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
     </row>
     <row r="31" spans="1:51">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
-      <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
-      <c r="AV31" s="4"/>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="4"/>
-      <c r="AY31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
     </row>
     <row r="32" spans="1:51">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="4"/>
-      <c r="AY32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
     </row>
     <row r="33" spans="1:51">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="4"/>
-      <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
-      <c r="AX33" s="4"/>
-      <c r="AY33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
     </row>
     <row r="34" spans="1:51">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="4"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
-      <c r="AX34" s="4"/>
-      <c r="AY34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
     </row>
     <row r="35" spans="1:51">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
     </row>
     <row r="36" spans="1:51">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
     </row>
     <row r="37" spans="1:51">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="4"/>
-      <c r="AY37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
     </row>
     <row r="38" spans="1:51">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
-      <c r="AS38" s="4"/>
-      <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
-      <c r="AV38" s="4"/>
-      <c r="AW38" s="4"/>
-      <c r="AX38" s="4"/>
-      <c r="AY38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
     </row>
     <row r="39" spans="1:51">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
     </row>
     <row r="40" spans="1:51">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
     </row>
     <row r="41" spans="1:51">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
-      <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
-      <c r="AX41" s="4"/>
-      <c r="AY41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AO30">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>111</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP1:AY1 AJ2:AY24 D20:AO20 A20:C21 AE20:AO24 D21:U21 V21:AO24 V25:AY34 P31:V31 A35:AY41 A2:AO19 E27:AD27 A22:U34">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>121</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="B4:B27 A25:AD27 AG25:AG27 AJ25:AJ27 AM25:AM27 A28:AU28 A29:AD31 A2:AU24">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>101</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP1:AY1 AJ2:AY24 D20:AO20 A20:C21 D21:U21 V21:AO24 V25:AY34 P31:V31 A35:AY41 A12:AI19 E27:AD27 A22:U34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A2:AU28">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>103</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>111</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>112</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>102</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>121</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EEED81-4AB5-4E0A-8F4D-A68FBCBE0AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE2800-89D7-4B79-BAB8-B6A9D692BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="0" windowWidth="20052" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
   <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC14" sqref="S14:AC14"/>
+      <selection activeCell="E13" sqref="E13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2397,37 +2397,37 @@
         <v>112</v>
       </c>
       <c r="E13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="O13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="P13" s="1">
         <v>101</v>
@@ -2577,13 +2577,13 @@
         <v>101</v>
       </c>
       <c r="P14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="R14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="S14" s="1">
         <v>121</v>

--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE2800-89D7-4B79-BAB8-B6A9D692BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622B9C64-9C27-4B74-AA43-F01ECBF968F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="0" windowWidth="20052" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="720" windowWidth="20052" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
   <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:O13"/>
+      <selection activeCell="U14" sqref="P14:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2430,22 +2430,22 @@
         <v>121</v>
       </c>
       <c r="P13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="R13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="S13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="T13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="U13" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="V13" s="1">
         <v>101</v>
@@ -2577,22 +2577,22 @@
         <v>101</v>
       </c>
       <c r="P14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="R14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="S14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="T14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="U14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="V14" s="1">
         <v>121</v>

--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622B9C64-9C27-4B74-AA43-F01ECBF968F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD585C5-9888-4492-BF2D-7FCA61E1E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="720" windowWidth="20052" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,18 +608,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AZ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U14" sqref="P14:U14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="51" width="3.19921875" customWidth="1"/>
+    <col min="52" max="52" width="3.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:52" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -761,12 +762,23 @@
       <c r="AU1" s="5">
         <v>0</v>
       </c>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
+      <c r="AV1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2" s="12">
         <v>103</v>
       </c>
@@ -908,12 +920,23 @@
       <c r="AU2" s="13">
         <v>111</v>
       </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
+      <c r="AV2" s="13">
+        <v>111</v>
+      </c>
+      <c r="AW2" s="13">
+        <v>111</v>
+      </c>
+      <c r="AX2" s="13">
+        <v>111</v>
+      </c>
+      <c r="AY2" s="13">
+        <v>111</v>
+      </c>
+      <c r="AZ2" s="13">
+        <v>111</v>
+      </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" s="7">
         <v>103</v>
       </c>
@@ -1055,12 +1078,23 @@
       <c r="AU3" s="8">
         <v>111</v>
       </c>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
+      <c r="AV3" s="8">
+        <v>111</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>111</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>111</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>111</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>111</v>
+      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:52">
       <c r="A4" s="7">
         <v>103</v>
       </c>
@@ -1202,12 +1236,23 @@
       <c r="AU4" s="8">
         <v>111</v>
       </c>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
+      <c r="AV4" s="8">
+        <v>111</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>111</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>111</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>111</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>111</v>
+      </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" s="7">
         <v>103</v>
       </c>
@@ -1349,12 +1394,23 @@
       <c r="AU5" s="1">
         <v>111</v>
       </c>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
+      <c r="AV5" s="1">
+        <v>111</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>111</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>111</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>111</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:52">
       <c r="A6" s="7">
         <v>103</v>
       </c>
@@ -1496,12 +1552,23 @@
       <c r="AU6" s="1">
         <v>111</v>
       </c>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
+      <c r="AV6" s="1">
+        <v>111</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>111</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>111</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>111</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:52">
       <c r="A7" s="7">
         <v>103</v>
       </c>
@@ -1643,12 +1710,23 @@
       <c r="AU7" s="1">
         <v>103</v>
       </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
+      <c r="AV7" s="1">
+        <v>103</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>103</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>103</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>103</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>103</v>
+      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" s="7">
         <v>103</v>
       </c>
@@ -1790,12 +1868,23 @@
       <c r="AU8" s="1">
         <v>103</v>
       </c>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
+      <c r="AV8" s="1">
+        <v>103</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>103</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>103</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>103</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>103</v>
+      </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:52">
       <c r="A9" s="7">
         <v>103</v>
       </c>
@@ -1937,12 +2026,23 @@
       <c r="AU9" s="8">
         <v>112</v>
       </c>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
+      <c r="AV9" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ9" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:52">
       <c r="A10" s="7">
         <v>103</v>
       </c>
@@ -2084,12 +2184,23 @@
       <c r="AU10" s="8">
         <v>112</v>
       </c>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
+      <c r="AV10" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW10" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:52">
       <c r="A11" s="7">
         <v>103</v>
       </c>
@@ -2231,12 +2342,23 @@
       <c r="AU11" s="8">
         <v>112</v>
       </c>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
+      <c r="AV11" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" s="7">
         <v>103</v>
       </c>
@@ -2378,12 +2500,23 @@
       <c r="AU12" s="8">
         <v>112</v>
       </c>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2"/>
-      <c r="AY12" s="2"/>
+      <c r="AV12" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW12" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ12" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:52">
       <c r="A13" s="7">
         <v>103</v>
       </c>
@@ -2525,12 +2658,23 @@
       <c r="AU13" s="8">
         <v>112</v>
       </c>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
+      <c r="AV13" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ13" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:52">
       <c r="A14" s="7">
         <v>103</v>
       </c>
@@ -2672,12 +2816,23 @@
       <c r="AU14" s="8">
         <v>112</v>
       </c>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
+      <c r="AV14" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW14" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX14" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY14" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ14" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="A15" s="7">
         <v>103</v>
       </c>
@@ -2819,12 +2974,23 @@
       <c r="AU15" s="8">
         <v>101</v>
       </c>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
+      <c r="AV15" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW15" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX15" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY15" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ15" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:52">
       <c r="A16" s="7">
         <v>103</v>
       </c>
@@ -2966,12 +3132,23 @@
       <c r="AU16" s="8">
         <v>101</v>
       </c>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="2"/>
+      <c r="AV16" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW16" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ16" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:52">
       <c r="A17" s="7">
         <v>103</v>
       </c>
@@ -3113,12 +3290,23 @@
       <c r="AU17" s="8">
         <v>101</v>
       </c>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="2"/>
+      <c r="AV17" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW17" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ17" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:52">
       <c r="A18" s="7">
         <v>103</v>
       </c>
@@ -3260,12 +3448,23 @@
       <c r="AU18" s="8">
         <v>101</v>
       </c>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
+      <c r="AV18" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW18" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX18" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY18" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ18" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:52">
       <c r="A19" s="7">
         <v>103</v>
       </c>
@@ -3407,12 +3606,23 @@
       <c r="AU19" s="8">
         <v>101</v>
       </c>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
+      <c r="AV19" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW19" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX19" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY19" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ19" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:52">
       <c r="A20" s="7">
         <v>103</v>
       </c>
@@ -3554,12 +3764,23 @@
       <c r="AU20" s="8">
         <v>101</v>
       </c>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
-      <c r="AY20" s="2"/>
+      <c r="AV20" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW20" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX20" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY20" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ20" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:52">
       <c r="A21" s="7">
         <v>103</v>
       </c>
@@ -3701,12 +3922,23 @@
       <c r="AU21" s="8">
         <v>101</v>
       </c>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="2"/>
+      <c r="AV21" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW21" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX21" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY21" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ21" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:52">
       <c r="A22" s="7">
         <v>103</v>
       </c>
@@ -3848,12 +4080,23 @@
       <c r="AU22" s="8">
         <v>101</v>
       </c>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
+      <c r="AV22" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW22" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX22" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY22" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ22" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:52">
       <c r="A23" s="7">
         <v>103</v>
       </c>
@@ -3995,12 +4238,23 @@
       <c r="AU23" s="8">
         <v>101</v>
       </c>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
+      <c r="AV23" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW23" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX23" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY23" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ23" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:52">
       <c r="A24" s="7">
         <v>103</v>
       </c>
@@ -4142,12 +4396,23 @@
       <c r="AU24" s="8">
         <v>101</v>
       </c>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
+      <c r="AV24" s="8">
+        <v>101</v>
+      </c>
+      <c r="AW24" s="8">
+        <v>101</v>
+      </c>
+      <c r="AX24" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY24" s="8">
+        <v>101</v>
+      </c>
+      <c r="AZ24" s="8">
+        <v>101</v>
+      </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:52">
       <c r="A25" s="7">
         <v>103</v>
       </c>
@@ -4289,12 +4554,23 @@
       <c r="AU25" s="8">
         <v>112</v>
       </c>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
+      <c r="AV25" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW25" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX25" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY25" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ25" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:52">
       <c r="A26" s="7">
         <v>103</v>
       </c>
@@ -4436,12 +4712,23 @@
       <c r="AU26" s="8">
         <v>112</v>
       </c>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
+      <c r="AV26" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW26" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX26" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY26" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ26" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:52">
       <c r="A27" s="7">
         <v>103</v>
       </c>
@@ -4583,12 +4870,23 @@
       <c r="AU27" s="8">
         <v>112</v>
       </c>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
+      <c r="AV27" s="8">
+        <v>112</v>
+      </c>
+      <c r="AW27" s="8">
+        <v>112</v>
+      </c>
+      <c r="AX27" s="8">
+        <v>112</v>
+      </c>
+      <c r="AY27" s="8">
+        <v>112</v>
+      </c>
+      <c r="AZ27" s="8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="28" spans="1:51" ht="18.600000000000001" thickBot="1">
+    <row r="28" spans="1:52" ht="18.600000000000001" thickBot="1">
       <c r="A28" s="9">
         <v>103</v>
       </c>
@@ -4730,277 +5028,813 @@
       <c r="AU28" s="11">
         <v>103</v>
       </c>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
+      <c r="AV28" s="11">
+        <v>103</v>
+      </c>
+      <c r="AW28" s="11">
+        <v>103</v>
+      </c>
+      <c r="AX28" s="11">
+        <v>103</v>
+      </c>
+      <c r="AY28" s="11">
+        <v>103</v>
+      </c>
+      <c r="AZ28" s="11">
+        <v>103</v>
+      </c>
     </row>
-    <row r="29" spans="1:51">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
+    <row r="29" spans="1:52">
+      <c r="A29" s="2">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2">
+        <v>112</v>
+      </c>
+      <c r="C29" s="2">
+        <v>112</v>
+      </c>
+      <c r="D29" s="2">
+        <v>112</v>
+      </c>
+      <c r="E29" s="2">
+        <v>112</v>
+      </c>
+      <c r="F29" s="2">
+        <v>112</v>
+      </c>
+      <c r="G29" s="2">
+        <v>112</v>
+      </c>
+      <c r="H29" s="2">
+        <v>112</v>
+      </c>
+      <c r="I29" s="2">
+        <v>112</v>
+      </c>
+      <c r="J29" s="2">
+        <v>112</v>
+      </c>
+      <c r="K29" s="2">
+        <v>112</v>
+      </c>
+      <c r="L29" s="2">
+        <v>112</v>
+      </c>
+      <c r="M29" s="2">
+        <v>112</v>
+      </c>
+      <c r="N29" s="2">
+        <v>112</v>
+      </c>
+      <c r="O29" s="2">
+        <v>112</v>
+      </c>
+      <c r="P29" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>112</v>
+      </c>
+      <c r="R29" s="2">
+        <v>112</v>
+      </c>
+      <c r="S29" s="2">
+        <v>112</v>
+      </c>
+      <c r="T29" s="2">
+        <v>112</v>
+      </c>
+      <c r="U29" s="2">
+        <v>112</v>
+      </c>
+      <c r="V29" s="2">
+        <v>112</v>
+      </c>
+      <c r="W29" s="2">
+        <v>112</v>
+      </c>
+      <c r="X29" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AV29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>112</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="30" spans="1:51">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="2"/>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="2"/>
-      <c r="AY30" s="2"/>
+    <row r="30" spans="1:52">
+      <c r="A30" s="2">
+        <v>112</v>
+      </c>
+      <c r="B30" s="2">
+        <v>112</v>
+      </c>
+      <c r="C30" s="2">
+        <v>112</v>
+      </c>
+      <c r="D30" s="2">
+        <v>112</v>
+      </c>
+      <c r="E30" s="2">
+        <v>112</v>
+      </c>
+      <c r="F30" s="2">
+        <v>112</v>
+      </c>
+      <c r="G30" s="2">
+        <v>112</v>
+      </c>
+      <c r="H30" s="2">
+        <v>112</v>
+      </c>
+      <c r="I30" s="2">
+        <v>112</v>
+      </c>
+      <c r="J30" s="2">
+        <v>112</v>
+      </c>
+      <c r="K30" s="2">
+        <v>112</v>
+      </c>
+      <c r="L30" s="2">
+        <v>112</v>
+      </c>
+      <c r="M30" s="2">
+        <v>112</v>
+      </c>
+      <c r="N30" s="2">
+        <v>112</v>
+      </c>
+      <c r="O30" s="2">
+        <v>112</v>
+      </c>
+      <c r="P30" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>112</v>
+      </c>
+      <c r="R30" s="2">
+        <v>112</v>
+      </c>
+      <c r="S30" s="2">
+        <v>112</v>
+      </c>
+      <c r="T30" s="2">
+        <v>112</v>
+      </c>
+      <c r="U30" s="2">
+        <v>112</v>
+      </c>
+      <c r="V30" s="2">
+        <v>112</v>
+      </c>
+      <c r="W30" s="2">
+        <v>112</v>
+      </c>
+      <c r="X30" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AV30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>112</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="31" spans="1:51">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
+    <row r="31" spans="1:52">
+      <c r="A31" s="2">
+        <v>112</v>
+      </c>
+      <c r="B31" s="2">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2">
+        <v>112</v>
+      </c>
+      <c r="D31" s="2">
+        <v>112</v>
+      </c>
+      <c r="E31" s="2">
+        <v>112</v>
+      </c>
+      <c r="F31" s="2">
+        <v>112</v>
+      </c>
+      <c r="G31" s="2">
+        <v>112</v>
+      </c>
+      <c r="H31" s="2">
+        <v>112</v>
+      </c>
+      <c r="I31" s="2">
+        <v>112</v>
+      </c>
+      <c r="J31" s="2">
+        <v>112</v>
+      </c>
+      <c r="K31" s="2">
+        <v>112</v>
+      </c>
+      <c r="L31" s="2">
+        <v>112</v>
+      </c>
+      <c r="M31" s="2">
+        <v>112</v>
+      </c>
+      <c r="N31" s="2">
+        <v>112</v>
+      </c>
+      <c r="O31" s="2">
+        <v>112</v>
+      </c>
+      <c r="P31" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>112</v>
+      </c>
+      <c r="R31" s="2">
+        <v>112</v>
+      </c>
+      <c r="S31" s="2">
+        <v>112</v>
+      </c>
+      <c r="T31" s="2">
+        <v>112</v>
+      </c>
+      <c r="U31" s="2">
+        <v>112</v>
+      </c>
+      <c r="V31" s="2">
+        <v>112</v>
+      </c>
+      <c r="W31" s="2">
+        <v>112</v>
+      </c>
+      <c r="X31" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AV31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>112</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="32" spans="1:51">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2"/>
-      <c r="AY32" s="2"/>
+    <row r="32" spans="1:52">
+      <c r="A32" s="2">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2">
+        <v>112</v>
+      </c>
+      <c r="D32" s="2">
+        <v>112</v>
+      </c>
+      <c r="E32" s="2">
+        <v>112</v>
+      </c>
+      <c r="F32" s="2">
+        <v>112</v>
+      </c>
+      <c r="G32" s="2">
+        <v>112</v>
+      </c>
+      <c r="H32" s="2">
+        <v>112</v>
+      </c>
+      <c r="I32" s="2">
+        <v>112</v>
+      </c>
+      <c r="J32" s="2">
+        <v>112</v>
+      </c>
+      <c r="K32" s="2">
+        <v>112</v>
+      </c>
+      <c r="L32" s="2">
+        <v>112</v>
+      </c>
+      <c r="M32" s="2">
+        <v>112</v>
+      </c>
+      <c r="N32" s="2">
+        <v>112</v>
+      </c>
+      <c r="O32" s="2">
+        <v>112</v>
+      </c>
+      <c r="P32" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>112</v>
+      </c>
+      <c r="R32" s="2">
+        <v>112</v>
+      </c>
+      <c r="S32" s="2">
+        <v>112</v>
+      </c>
+      <c r="T32" s="2">
+        <v>112</v>
+      </c>
+      <c r="U32" s="2">
+        <v>112</v>
+      </c>
+      <c r="V32" s="2">
+        <v>112</v>
+      </c>
+      <c r="W32" s="2">
+        <v>112</v>
+      </c>
+      <c r="X32" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>112</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="33" spans="1:51">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
+    <row r="33" spans="1:52">
+      <c r="A33" s="2">
+        <v>112</v>
+      </c>
+      <c r="B33" s="2">
+        <v>112</v>
+      </c>
+      <c r="C33" s="2">
+        <v>112</v>
+      </c>
+      <c r="D33" s="2">
+        <v>112</v>
+      </c>
+      <c r="E33" s="2">
+        <v>112</v>
+      </c>
+      <c r="F33" s="2">
+        <v>112</v>
+      </c>
+      <c r="G33" s="2">
+        <v>112</v>
+      </c>
+      <c r="H33" s="2">
+        <v>112</v>
+      </c>
+      <c r="I33" s="2">
+        <v>112</v>
+      </c>
+      <c r="J33" s="2">
+        <v>112</v>
+      </c>
+      <c r="K33" s="2">
+        <v>112</v>
+      </c>
+      <c r="L33" s="2">
+        <v>112</v>
+      </c>
+      <c r="M33" s="2">
+        <v>112</v>
+      </c>
+      <c r="N33" s="2">
+        <v>112</v>
+      </c>
+      <c r="O33" s="2">
+        <v>112</v>
+      </c>
+      <c r="P33" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>112</v>
+      </c>
+      <c r="R33" s="2">
+        <v>112</v>
+      </c>
+      <c r="S33" s="2">
+        <v>112</v>
+      </c>
+      <c r="T33" s="2">
+        <v>112</v>
+      </c>
+      <c r="U33" s="2">
+        <v>112</v>
+      </c>
+      <c r="V33" s="2">
+        <v>112</v>
+      </c>
+      <c r="W33" s="2">
+        <v>112</v>
+      </c>
+      <c r="X33" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AS33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AU33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AW33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AY33" s="2">
+        <v>112</v>
+      </c>
+      <c r="AZ33" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:52">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5053,7 +5887,7 @@
       <c r="AX34" s="2"/>
       <c r="AY34" s="2"/>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:52">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5106,7 +5940,7 @@
       <c r="AX35" s="2"/>
       <c r="AY35" s="2"/>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:52">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5159,7 +5993,7 @@
       <c r="AX36" s="2"/>
       <c r="AY36" s="2"/>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:52">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5212,7 +6046,7 @@
       <c r="AX37" s="2"/>
       <c r="AY37" s="2"/>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:52">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5265,7 +6099,7 @@
       <c r="AX38" s="2"/>
       <c r="AY38" s="2"/>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:52">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5318,7 +6152,7 @@
       <c r="AX39" s="2"/>
       <c r="AY39" s="2"/>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:52">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -5371,7 +6205,7 @@
       <c r="AX40" s="2"/>
       <c r="AY40" s="2"/>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:52">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5426,12 +6260,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B4:B27 A25:AD27 AG25:AG27 AJ25:AJ27 AM25:AM27 A28:AU28 A29:AD31 A2:AU24">
+  <conditionalFormatting sqref="B4:B27 A25:AD27 AG25:AG27 AJ25:AJ27 AM25:AM27 A2:AZ24 A28:AZ31">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>101</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AU28">
+  <conditionalFormatting sqref="A2:AZ28">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>103</formula>
     </cfRule>

--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD585C5-9888-4492-BF2D-7FCA61E1E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CDE1F8-D7C8-4E6D-8625-5A0CF7095A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="828" windowWidth="20052" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3028,10 +3028,10 @@
         <v>101</v>
       </c>
       <c r="M16" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N16" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="O16" s="1">
         <v>101</v>
@@ -3186,10 +3186,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N17" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="O17" s="1">
         <v>101</v>
@@ -6260,7 +6260,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B4:B27 A25:AD27 AG25:AG27 AJ25:AJ27 AM25:AM27 A2:AZ24 A28:AZ31">
+  <conditionalFormatting sqref="B4:B27 A25:AD27 AG25:AG27 AJ25:AJ27 AM25:AM27 A28:AZ31 A2:AZ24">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>101</formula>
     </cfRule>

--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CDE1F8-D7C8-4E6D-8625-5A0CF7095A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBB2FE-90C3-4C10-ACED-667B1383EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="828" windowWidth="20052" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -276,6 +276,16 @@
   <dxfs count="6">
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -286,11 +296,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
+        <color rgb="FFFFFF99"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -300,7 +310,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -321,18 +331,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -611,13 +616,13 @@
   <dimension ref="A1:AZ41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="51" width="3.19921875" customWidth="1"/>
-    <col min="52" max="52" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="18.600000000000001" thickBot="1">
@@ -759,19 +764,19 @@
       <c r="AT1" s="4">
         <v>0</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AU1" s="4">
         <v>0</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AV1" s="4">
         <v>0</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="AW1" s="4">
         <v>0</v>
       </c>
-      <c r="AX1" s="5">
+      <c r="AX1" s="4">
         <v>0</v>
       </c>
-      <c r="AY1" s="5">
+      <c r="AY1" s="4">
         <v>0</v>
       </c>
       <c r="AZ1" s="5">
@@ -917,19 +922,19 @@
       <c r="AT2" s="6">
         <v>111</v>
       </c>
-      <c r="AU2" s="13">
+      <c r="AU2" s="6">
         <v>111</v>
       </c>
-      <c r="AV2" s="13">
+      <c r="AV2" s="6">
         <v>111</v>
       </c>
-      <c r="AW2" s="13">
+      <c r="AW2" s="6">
         <v>111</v>
       </c>
-      <c r="AX2" s="13">
+      <c r="AX2" s="6">
         <v>111</v>
       </c>
-      <c r="AY2" s="13">
+      <c r="AY2" s="6">
         <v>111</v>
       </c>
       <c r="AZ2" s="13">
@@ -1066,28 +1071,28 @@
       <c r="AQ3" s="1">
         <v>103</v>
       </c>
-      <c r="AR3" s="6">
+      <c r="AR3" s="1">
         <v>111</v>
       </c>
-      <c r="AS3" s="6">
+      <c r="AS3" s="1">
         <v>111</v>
       </c>
       <c r="AT3" s="1">
         <v>111</v>
       </c>
-      <c r="AU3" s="8">
+      <c r="AU3" s="1">
         <v>111</v>
       </c>
-      <c r="AV3" s="8">
+      <c r="AV3" s="1">
         <v>111</v>
       </c>
-      <c r="AW3" s="8">
+      <c r="AW3" s="1">
         <v>111</v>
       </c>
-      <c r="AX3" s="8">
+      <c r="AX3" s="1">
         <v>111</v>
       </c>
-      <c r="AY3" s="8">
+      <c r="AY3" s="1">
         <v>111</v>
       </c>
       <c r="AZ3" s="8">
@@ -1227,25 +1232,25 @@
       <c r="AR4" s="1">
         <v>103</v>
       </c>
-      <c r="AS4" s="6">
+      <c r="AS4" s="1">
         <v>111</v>
       </c>
-      <c r="AT4" s="6">
+      <c r="AT4" s="1">
         <v>111</v>
       </c>
-      <c r="AU4" s="8">
+      <c r="AU4" s="1">
         <v>111</v>
       </c>
-      <c r="AV4" s="8">
+      <c r="AV4" s="1">
         <v>111</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AW4" s="1">
         <v>111</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="AX4" s="1">
         <v>111</v>
       </c>
-      <c r="AY4" s="8">
+      <c r="AY4" s="1">
         <v>111</v>
       </c>
       <c r="AZ4" s="8">
@@ -1388,7 +1393,7 @@
       <c r="AS5" s="1">
         <v>103</v>
       </c>
-      <c r="AT5" s="6">
+      <c r="AT5" s="1">
         <v>111</v>
       </c>
       <c r="AU5" s="1">
@@ -1406,7 +1411,7 @@
       <c r="AY5" s="1">
         <v>111</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="AZ5" s="8">
         <v>111</v>
       </c>
     </row>
@@ -1564,7 +1569,7 @@
       <c r="AY6" s="1">
         <v>111</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="AZ6" s="8">
         <v>111</v>
       </c>
     </row>
@@ -1722,7 +1727,7 @@
       <c r="AY7" s="1">
         <v>103</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="AZ7" s="8">
         <v>103</v>
       </c>
     </row>
@@ -1880,7 +1885,7 @@
       <c r="AY8" s="1">
         <v>103</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="AZ8" s="8">
         <v>103</v>
       </c>
     </row>
@@ -2023,19 +2028,19 @@
       <c r="AT9" s="1">
         <v>112</v>
       </c>
-      <c r="AU9" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV9" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW9" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX9" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY9" s="8">
+      <c r="AU9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY9" s="1">
         <v>112</v>
       </c>
       <c r="AZ9" s="8">
@@ -2181,19 +2186,19 @@
       <c r="AT10" s="1">
         <v>112</v>
       </c>
-      <c r="AU10" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV10" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW10" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX10" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY10" s="8">
+      <c r="AU10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY10" s="1">
         <v>112</v>
       </c>
       <c r="AZ10" s="8">
@@ -2339,19 +2344,19 @@
       <c r="AT11" s="1">
         <v>112</v>
       </c>
-      <c r="AU11" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV11" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW11" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX11" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY11" s="8">
+      <c r="AU11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY11" s="1">
         <v>112</v>
       </c>
       <c r="AZ11" s="8">
@@ -2497,19 +2502,19 @@
       <c r="AT12" s="1">
         <v>112</v>
       </c>
-      <c r="AU12" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV12" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW12" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX12" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY12" s="8">
+      <c r="AU12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY12" s="1">
         <v>112</v>
       </c>
       <c r="AZ12" s="8">
@@ -2560,25 +2565,25 @@
         <v>121</v>
       </c>
       <c r="O13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="R13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="S13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="T13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="U13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="V13" s="1">
         <v>101</v>
@@ -2655,19 +2660,19 @@
       <c r="AT13" s="1">
         <v>112</v>
       </c>
-      <c r="AU13" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV13" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW13" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX13" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY13" s="8">
+      <c r="AU13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY13" s="1">
         <v>112</v>
       </c>
       <c r="AZ13" s="8">
@@ -2688,7 +2693,7 @@
         <v>112</v>
       </c>
       <c r="E14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1">
         <v>101</v>
@@ -2718,7 +2723,7 @@
         <v>101</v>
       </c>
       <c r="O14" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="P14" s="1">
         <v>101</v>
@@ -2739,28 +2744,28 @@
         <v>101</v>
       </c>
       <c r="V14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="W14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="X14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Y14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Z14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AA14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AB14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AC14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AD14" s="1">
         <v>112</v>
@@ -2813,19 +2818,19 @@
       <c r="AT14" s="1">
         <v>112</v>
       </c>
-      <c r="AU14" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV14" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW14" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX14" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY14" s="8">
+      <c r="AU14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY14" s="1">
         <v>112</v>
       </c>
       <c r="AZ14" s="8">
@@ -2846,7 +2851,7 @@
         <v>112</v>
       </c>
       <c r="E15" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1">
         <v>101</v>
@@ -2858,25 +2863,25 @@
         <v>101</v>
       </c>
       <c r="I15" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N15" s="1">
         <v>101</v>
       </c>
       <c r="O15" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="P15" s="1">
         <v>101</v>
@@ -2971,19 +2976,19 @@
       <c r="AT15" s="1">
         <v>101</v>
       </c>
-      <c r="AU15" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV15" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW15" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX15" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY15" s="8">
+      <c r="AU15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY15" s="1">
         <v>101</v>
       </c>
       <c r="AZ15" s="8">
@@ -3004,7 +3009,7 @@
         <v>112</v>
       </c>
       <c r="E16" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1">
         <v>101</v>
@@ -3016,31 +3021,31 @@
         <v>101</v>
       </c>
       <c r="I16" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J16" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="1">
+        <v>102</v>
+      </c>
+      <c r="N16" s="1">
+        <v>101</v>
+      </c>
+      <c r="O16" s="1">
         <v>121</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>121</v>
       </c>
-      <c r="O16" s="1">
-        <v>101</v>
-      </c>
-      <c r="P16" s="1">
-        <v>101</v>
-      </c>
       <c r="Q16" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="R16" s="1">
         <v>101</v>
@@ -3129,19 +3134,19 @@
       <c r="AT16" s="1">
         <v>101</v>
       </c>
-      <c r="AU16" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV16" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW16" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX16" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY16" s="8">
+      <c r="AU16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY16" s="1">
         <v>101</v>
       </c>
       <c r="AZ16" s="8">
@@ -3162,7 +3167,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F17" s="1">
         <v>101</v>
@@ -3174,19 +3179,19 @@
         <v>101</v>
       </c>
       <c r="I17" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="1">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="N17" s="1">
         <v>121</v>
@@ -3198,16 +3203,16 @@
         <v>101</v>
       </c>
       <c r="Q17" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="R17" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S17" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T17" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U17" s="1">
         <v>101</v>
@@ -3249,10 +3254,10 @@
         <v>101</v>
       </c>
       <c r="AH17" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AI17" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AJ17" s="1">
         <v>101</v>
@@ -3287,19 +3292,19 @@
       <c r="AT17" s="1">
         <v>101</v>
       </c>
-      <c r="AU17" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV17" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW17" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX17" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY17" s="8">
+      <c r="AU17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY17" s="1">
         <v>101</v>
       </c>
       <c r="AZ17" s="8">
@@ -3320,7 +3325,7 @@
         <v>112</v>
       </c>
       <c r="E18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F18" s="1">
         <v>101</v>
@@ -3335,13 +3340,13 @@
         <v>101</v>
       </c>
       <c r="J18" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L18" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M18" s="1">
         <v>101</v>
@@ -3356,43 +3361,43 @@
         <v>101</v>
       </c>
       <c r="Q18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="R18" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S18" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T18" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="V18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="W18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="X18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Y18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Z18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AA18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AB18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AC18" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AD18" s="1">
         <v>112</v>
@@ -3407,10 +3412,10 @@
         <v>101</v>
       </c>
       <c r="AH18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AI18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AJ18" s="1">
         <v>101</v>
@@ -3445,19 +3450,19 @@
       <c r="AT18" s="1">
         <v>101</v>
       </c>
-      <c r="AU18" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV18" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW18" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX18" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY18" s="8">
+      <c r="AU18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY18" s="1">
         <v>101</v>
       </c>
       <c r="AZ18" s="8">
@@ -3478,10 +3483,10 @@
         <v>112</v>
       </c>
       <c r="E19" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G19" s="1">
         <v>101</v>
@@ -3493,16 +3498,16 @@
         <v>101</v>
       </c>
       <c r="J19" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L19" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M19" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N19" s="1">
         <v>101</v>
@@ -3517,19 +3522,19 @@
         <v>101</v>
       </c>
       <c r="R19" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S19" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T19" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U19" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="V19" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="W19" s="1">
         <v>101</v>
@@ -3553,7 +3558,7 @@
         <v>101</v>
       </c>
       <c r="AD19" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AE19" s="1">
         <v>101</v>
@@ -3562,10 +3567,10 @@
         <v>101</v>
       </c>
       <c r="AG19" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AH19" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AI19" s="1">
         <v>101</v>
@@ -3603,19 +3608,19 @@
       <c r="AT19" s="1">
         <v>101</v>
       </c>
-      <c r="AU19" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV19" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW19" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX19" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY19" s="8">
+      <c r="AU19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY19" s="1">
         <v>101</v>
       </c>
       <c r="AZ19" s="8">
@@ -3639,7 +3644,7 @@
         <v>101</v>
       </c>
       <c r="F20" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G20" s="1">
         <v>101</v>
@@ -3654,16 +3659,16 @@
         <v>101</v>
       </c>
       <c r="K20" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N20" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O20" s="1">
         <v>101</v>
@@ -3675,13 +3680,13 @@
         <v>101</v>
       </c>
       <c r="R20" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S20" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T20" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U20" s="1">
         <v>101</v>
@@ -3711,7 +3716,7 @@
         <v>101</v>
       </c>
       <c r="AD20" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AE20" s="1">
         <v>101</v>
@@ -3720,7 +3725,7 @@
         <v>101</v>
       </c>
       <c r="AG20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AH20" s="1">
         <v>101</v>
@@ -3761,19 +3766,19 @@
       <c r="AT20" s="1">
         <v>101</v>
       </c>
-      <c r="AU20" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV20" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW20" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX20" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY20" s="8">
+      <c r="AU20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY20" s="1">
         <v>101</v>
       </c>
       <c r="AZ20" s="8">
@@ -3794,13 +3799,13 @@
         <v>112</v>
       </c>
       <c r="E21" s="1">
+        <v>101</v>
+      </c>
+      <c r="F21" s="1">
         <v>121</v>
       </c>
-      <c r="F21" s="1">
-        <v>101</v>
-      </c>
       <c r="G21" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H21" s="1">
         <v>101</v>
@@ -3815,52 +3820,52 @@
         <v>101</v>
       </c>
       <c r="L21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y21" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z21" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AA21" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AB21" s="1">
         <v>101</v>
@@ -3869,7 +3874,7 @@
         <v>101</v>
       </c>
       <c r="AD21" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AE21" s="1">
         <v>101</v>
@@ -3878,7 +3883,7 @@
         <v>101</v>
       </c>
       <c r="AG21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AH21" s="1">
         <v>101</v>
@@ -3919,19 +3924,19 @@
       <c r="AT21" s="1">
         <v>101</v>
       </c>
-      <c r="AU21" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV21" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW21" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX21" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY21" s="8">
+      <c r="AU21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY21" s="1">
         <v>101</v>
       </c>
       <c r="AZ21" s="8">
@@ -3952,83 +3957,83 @@
         <v>112</v>
       </c>
       <c r="E22" s="1">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1">
+        <v>101</v>
+      </c>
+      <c r="G22" s="1">
         <v>121</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
+        <v>101</v>
+      </c>
+      <c r="I22" s="1">
+        <v>101</v>
+      </c>
+      <c r="J22" s="1">
+        <v>101</v>
+      </c>
+      <c r="K22" s="1">
+        <v>101</v>
+      </c>
+      <c r="L22" s="1">
+        <v>101</v>
+      </c>
+      <c r="M22" s="1">
+        <v>102</v>
+      </c>
+      <c r="N22" s="1">
+        <v>102</v>
+      </c>
+      <c r="O22" s="1">
+        <v>102</v>
+      </c>
+      <c r="P22" s="1">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>102</v>
+      </c>
+      <c r="R22" s="1">
+        <v>102</v>
+      </c>
+      <c r="S22" s="1">
+        <v>102</v>
+      </c>
+      <c r="T22" s="1">
+        <v>102</v>
+      </c>
+      <c r="U22" s="1">
+        <v>102</v>
+      </c>
+      <c r="V22" s="1">
+        <v>102</v>
+      </c>
+      <c r="W22" s="1">
+        <v>102</v>
+      </c>
+      <c r="X22" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>102</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AD22" s="1">
         <v>121</v>
       </c>
-      <c r="G22" s="1">
-        <v>101</v>
-      </c>
-      <c r="H22" s="1">
-        <v>101</v>
-      </c>
-      <c r="I22" s="1">
-        <v>101</v>
-      </c>
-      <c r="J22" s="1">
-        <v>101</v>
-      </c>
-      <c r="K22" s="1">
-        <v>101</v>
-      </c>
-      <c r="L22" s="1">
-        <v>101</v>
-      </c>
-      <c r="M22" s="1">
-        <v>101</v>
-      </c>
-      <c r="N22" s="1">
-        <v>101</v>
-      </c>
-      <c r="O22" s="1">
-        <v>101</v>
-      </c>
-      <c r="P22" s="1">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>101</v>
-      </c>
-      <c r="R22" s="1">
-        <v>101</v>
-      </c>
-      <c r="S22" s="1">
-        <v>101</v>
-      </c>
-      <c r="T22" s="1">
-        <v>101</v>
-      </c>
-      <c r="U22" s="1">
-        <v>101</v>
-      </c>
-      <c r="V22" s="1">
-        <v>101</v>
-      </c>
-      <c r="W22" s="1">
-        <v>101</v>
-      </c>
-      <c r="X22" s="1">
-        <v>101</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>101</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>101</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>101</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>101</v>
-      </c>
       <c r="AE22" s="1">
         <v>101</v>
       </c>
@@ -4077,19 +4082,19 @@
       <c r="AT22" s="1">
         <v>101</v>
       </c>
-      <c r="AU22" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV22" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW22" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX22" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY22" s="8">
+      <c r="AU22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY22" s="1">
         <v>101</v>
       </c>
       <c r="AZ22" s="8">
@@ -4110,16 +4115,16 @@
         <v>112</v>
       </c>
       <c r="E23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1">
         <v>121</v>
       </c>
       <c r="H23" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I23" s="1">
         <v>101</v>
@@ -4137,40 +4142,40 @@
         <v>101</v>
       </c>
       <c r="N23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y23" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z23" s="1">
         <v>101</v>
@@ -4182,13 +4187,13 @@
         <v>101</v>
       </c>
       <c r="AC23" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AD23" s="1">
         <v>101</v>
       </c>
       <c r="AE23" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AF23" s="1">
         <v>101</v>
@@ -4235,19 +4240,19 @@
       <c r="AT23" s="1">
         <v>101</v>
       </c>
-      <c r="AU23" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV23" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW23" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX23" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY23" s="8">
+      <c r="AU23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY23" s="1">
         <v>101</v>
       </c>
       <c r="AZ23" s="8">
@@ -4268,85 +4273,85 @@
         <v>112</v>
       </c>
       <c r="E24" s="1">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>101</v>
+      </c>
+      <c r="G24" s="1">
+        <v>101</v>
+      </c>
+      <c r="H24" s="1">
         <v>121</v>
       </c>
-      <c r="F24" s="1">
+      <c r="I24" s="1">
+        <v>101</v>
+      </c>
+      <c r="J24" s="1">
+        <v>101</v>
+      </c>
+      <c r="K24" s="1">
+        <v>101</v>
+      </c>
+      <c r="L24" s="1">
+        <v>101</v>
+      </c>
+      <c r="M24" s="1">
+        <v>101</v>
+      </c>
+      <c r="N24" s="1">
+        <v>101</v>
+      </c>
+      <c r="O24" s="1">
+        <v>101</v>
+      </c>
+      <c r="P24" s="1">
+        <v>101</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>101</v>
+      </c>
+      <c r="R24" s="1">
+        <v>101</v>
+      </c>
+      <c r="S24" s="1">
+        <v>101</v>
+      </c>
+      <c r="T24" s="1">
+        <v>101</v>
+      </c>
+      <c r="U24" s="1">
+        <v>101</v>
+      </c>
+      <c r="V24" s="1">
+        <v>101</v>
+      </c>
+      <c r="W24" s="1">
+        <v>101</v>
+      </c>
+      <c r="X24" s="1">
+        <v>101</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AC24" s="1">
         <v>121</v>
       </c>
-      <c r="G24" s="1">
-        <v>121</v>
-      </c>
-      <c r="H24" s="1">
-        <v>101</v>
-      </c>
-      <c r="I24" s="1">
-        <v>101</v>
-      </c>
-      <c r="J24" s="1">
-        <v>101</v>
-      </c>
-      <c r="K24" s="1">
-        <v>101</v>
-      </c>
-      <c r="L24" s="1">
-        <v>101</v>
-      </c>
-      <c r="M24" s="1">
-        <v>101</v>
-      </c>
-      <c r="N24" s="1">
-        <v>101</v>
-      </c>
-      <c r="O24" s="1">
-        <v>101</v>
-      </c>
-      <c r="P24" s="1">
-        <v>101</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>101</v>
-      </c>
-      <c r="R24" s="1">
-        <v>101</v>
-      </c>
-      <c r="S24" s="1">
-        <v>101</v>
-      </c>
-      <c r="T24" s="1">
-        <v>101</v>
-      </c>
-      <c r="U24" s="1">
-        <v>101</v>
-      </c>
-      <c r="V24" s="1">
-        <v>101</v>
-      </c>
-      <c r="W24" s="1">
-        <v>101</v>
-      </c>
-      <c r="X24" s="1">
-        <v>101</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>101</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>101</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>101</v>
-      </c>
       <c r="AD24" s="1">
         <v>101</v>
       </c>
       <c r="AE24" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AF24" s="1">
         <v>101</v>
@@ -4393,19 +4398,19 @@
       <c r="AT24" s="1">
         <v>101</v>
       </c>
-      <c r="AU24" s="8">
-        <v>101</v>
-      </c>
-      <c r="AV24" s="8">
-        <v>101</v>
-      </c>
-      <c r="AW24" s="8">
-        <v>101</v>
-      </c>
-      <c r="AX24" s="8">
-        <v>101</v>
-      </c>
-      <c r="AY24" s="8">
+      <c r="AU24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AY24" s="1">
         <v>101</v>
       </c>
       <c r="AZ24" s="8">
@@ -4426,19 +4431,19 @@
         <v>112</v>
       </c>
       <c r="E25" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G25" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H25" s="1">
         <v>121</v>
       </c>
       <c r="I25" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J25" s="1">
         <v>101</v>
@@ -4498,7 +4503,7 @@
         <v>101</v>
       </c>
       <c r="AC25" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AD25" s="1">
         <v>112</v>
@@ -4551,19 +4556,19 @@
       <c r="AT25" s="1">
         <v>112</v>
       </c>
-      <c r="AU25" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV25" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW25" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX25" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY25" s="8">
+      <c r="AU25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY25" s="1">
         <v>112</v>
       </c>
       <c r="AZ25" s="8">
@@ -4584,80 +4589,80 @@
         <v>112</v>
       </c>
       <c r="E26" s="1">
+        <v>101</v>
+      </c>
+      <c r="F26" s="1">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1">
+        <v>101</v>
+      </c>
+      <c r="H26" s="1">
+        <v>101</v>
+      </c>
+      <c r="I26" s="1">
         <v>121</v>
       </c>
-      <c r="F26" s="1">
+      <c r="J26" s="1">
         <v>121</v>
       </c>
-      <c r="G26" s="1">
+      <c r="K26" s="1">
+        <v>101</v>
+      </c>
+      <c r="L26" s="1">
+        <v>101</v>
+      </c>
+      <c r="M26" s="1">
+        <v>101</v>
+      </c>
+      <c r="N26" s="1">
+        <v>101</v>
+      </c>
+      <c r="O26" s="1">
+        <v>101</v>
+      </c>
+      <c r="P26" s="1">
+        <v>101</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>101</v>
+      </c>
+      <c r="R26" s="1">
+        <v>101</v>
+      </c>
+      <c r="S26" s="1">
+        <v>101</v>
+      </c>
+      <c r="T26" s="1">
+        <v>101</v>
+      </c>
+      <c r="U26" s="1">
+        <v>101</v>
+      </c>
+      <c r="V26" s="1">
+        <v>101</v>
+      </c>
+      <c r="W26" s="1">
+        <v>101</v>
+      </c>
+      <c r="X26" s="1">
+        <v>101</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>101</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>101</v>
+      </c>
+      <c r="AB26" s="1">
         <v>121</v>
       </c>
-      <c r="H26" s="1">
+      <c r="AC26" s="1">
         <v>121</v>
       </c>
-      <c r="I26" s="1">
-        <v>101</v>
-      </c>
-      <c r="J26" s="1">
-        <v>101</v>
-      </c>
-      <c r="K26" s="1">
-        <v>101</v>
-      </c>
-      <c r="L26" s="1">
-        <v>101</v>
-      </c>
-      <c r="M26" s="1">
-        <v>101</v>
-      </c>
-      <c r="N26" s="1">
-        <v>101</v>
-      </c>
-      <c r="O26" s="1">
-        <v>101</v>
-      </c>
-      <c r="P26" s="1">
-        <v>101</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>101</v>
-      </c>
-      <c r="R26" s="1">
-        <v>101</v>
-      </c>
-      <c r="S26" s="1">
-        <v>101</v>
-      </c>
-      <c r="T26" s="1">
-        <v>101</v>
-      </c>
-      <c r="U26" s="1">
-        <v>101</v>
-      </c>
-      <c r="V26" s="1">
-        <v>101</v>
-      </c>
-      <c r="W26" s="1">
-        <v>101</v>
-      </c>
-      <c r="X26" s="1">
-        <v>101</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>101</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>101</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>101</v>
-      </c>
       <c r="AD26" s="1">
         <v>112</v>
       </c>
@@ -4709,19 +4714,19 @@
       <c r="AT26" s="1">
         <v>112</v>
       </c>
-      <c r="AU26" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV26" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW26" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX26" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY26" s="8">
+      <c r="AU26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY26" s="1">
         <v>112</v>
       </c>
       <c r="AZ26" s="8">
@@ -4742,80 +4747,80 @@
         <v>112</v>
       </c>
       <c r="E27" s="1">
+        <v>101</v>
+      </c>
+      <c r="F27" s="1">
+        <v>101</v>
+      </c>
+      <c r="G27" s="1">
+        <v>101</v>
+      </c>
+      <c r="H27" s="1">
+        <v>101</v>
+      </c>
+      <c r="I27" s="1">
+        <v>101</v>
+      </c>
+      <c r="J27" s="1">
         <v>121</v>
       </c>
-      <c r="F27" s="1">
+      <c r="K27" s="1">
+        <v>101</v>
+      </c>
+      <c r="L27" s="1">
+        <v>101</v>
+      </c>
+      <c r="M27" s="1">
+        <v>101</v>
+      </c>
+      <c r="N27" s="1">
+        <v>101</v>
+      </c>
+      <c r="O27" s="1">
+        <v>101</v>
+      </c>
+      <c r="P27" s="1">
+        <v>101</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>101</v>
+      </c>
+      <c r="R27" s="1">
+        <v>101</v>
+      </c>
+      <c r="S27" s="1">
+        <v>101</v>
+      </c>
+      <c r="T27" s="1">
+        <v>101</v>
+      </c>
+      <c r="U27" s="1">
+        <v>101</v>
+      </c>
+      <c r="V27" s="1">
+        <v>101</v>
+      </c>
+      <c r="W27" s="1">
+        <v>101</v>
+      </c>
+      <c r="X27" s="1">
+        <v>101</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>101</v>
+      </c>
+      <c r="AA27" s="1">
         <v>121</v>
       </c>
-      <c r="G27" s="1">
+      <c r="AB27" s="1">
         <v>121</v>
       </c>
-      <c r="H27" s="1">
+      <c r="AC27" s="1">
         <v>121</v>
       </c>
-      <c r="I27" s="1">
-        <v>121</v>
-      </c>
-      <c r="J27" s="1">
-        <v>101</v>
-      </c>
-      <c r="K27" s="1">
-        <v>101</v>
-      </c>
-      <c r="L27" s="1">
-        <v>101</v>
-      </c>
-      <c r="M27" s="1">
-        <v>101</v>
-      </c>
-      <c r="N27" s="1">
-        <v>101</v>
-      </c>
-      <c r="O27" s="1">
-        <v>101</v>
-      </c>
-      <c r="P27" s="1">
-        <v>101</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>101</v>
-      </c>
-      <c r="R27" s="1">
-        <v>101</v>
-      </c>
-      <c r="S27" s="1">
-        <v>101</v>
-      </c>
-      <c r="T27" s="1">
-        <v>101</v>
-      </c>
-      <c r="U27" s="1">
-        <v>101</v>
-      </c>
-      <c r="V27" s="1">
-        <v>101</v>
-      </c>
-      <c r="W27" s="1">
-        <v>101</v>
-      </c>
-      <c r="X27" s="1">
-        <v>101</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>101</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>101</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>101</v>
-      </c>
       <c r="AD27" s="1">
         <v>112</v>
       </c>
@@ -4867,970 +4872,970 @@
       <c r="AT27" s="1">
         <v>112</v>
       </c>
-      <c r="AU27" s="8">
-        <v>112</v>
-      </c>
-      <c r="AV27" s="8">
-        <v>112</v>
-      </c>
-      <c r="AW27" s="8">
-        <v>112</v>
-      </c>
-      <c r="AX27" s="8">
-        <v>112</v>
-      </c>
-      <c r="AY27" s="8">
+      <c r="AU27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY27" s="1">
         <v>112</v>
       </c>
       <c r="AZ27" s="8">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="18.600000000000001" thickBot="1">
-      <c r="A28" s="9">
-        <v>103</v>
-      </c>
-      <c r="B28" s="10">
-        <v>103</v>
-      </c>
-      <c r="C28" s="10">
-        <v>103</v>
-      </c>
-      <c r="D28" s="10">
-        <v>103</v>
-      </c>
-      <c r="E28" s="10">
-        <v>103</v>
-      </c>
-      <c r="F28" s="10">
-        <v>103</v>
-      </c>
-      <c r="G28" s="10">
-        <v>103</v>
-      </c>
-      <c r="H28" s="10">
-        <v>103</v>
-      </c>
-      <c r="I28" s="10">
-        <v>103</v>
-      </c>
-      <c r="J28" s="10">
-        <v>103</v>
-      </c>
-      <c r="K28" s="10">
-        <v>103</v>
-      </c>
-      <c r="L28" s="10">
-        <v>103</v>
-      </c>
-      <c r="M28" s="10">
-        <v>103</v>
-      </c>
-      <c r="N28" s="10">
-        <v>103</v>
-      </c>
-      <c r="O28" s="10">
-        <v>103</v>
-      </c>
-      <c r="P28" s="10">
-        <v>103</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>103</v>
-      </c>
-      <c r="R28" s="10">
-        <v>103</v>
-      </c>
-      <c r="S28" s="10">
-        <v>103</v>
-      </c>
-      <c r="T28" s="10">
-        <v>103</v>
-      </c>
-      <c r="U28" s="10">
-        <v>103</v>
-      </c>
-      <c r="V28" s="10">
-        <v>103</v>
-      </c>
-      <c r="W28" s="10">
-        <v>103</v>
-      </c>
-      <c r="X28" s="10">
-        <v>103</v>
-      </c>
-      <c r="Y28" s="10">
-        <v>103</v>
-      </c>
-      <c r="Z28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AA28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AB28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AC28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AD28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AE28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AF28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AG28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AH28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AI28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AJ28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AK28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AL28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AM28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AN28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AO28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AP28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AQ28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AR28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AS28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AT28" s="10">
-        <v>103</v>
-      </c>
-      <c r="AU28" s="11">
-        <v>103</v>
-      </c>
-      <c r="AV28" s="11">
-        <v>103</v>
-      </c>
-      <c r="AW28" s="11">
-        <v>103</v>
-      </c>
-      <c r="AX28" s="11">
-        <v>103</v>
-      </c>
-      <c r="AY28" s="11">
-        <v>103</v>
-      </c>
-      <c r="AZ28" s="11">
+    <row r="28" spans="1:52">
+      <c r="A28" s="7">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1">
+        <v>103</v>
+      </c>
+      <c r="E28" s="1">
+        <v>103</v>
+      </c>
+      <c r="F28" s="1">
+        <v>103</v>
+      </c>
+      <c r="G28" s="1">
+        <v>103</v>
+      </c>
+      <c r="H28" s="1">
+        <v>103</v>
+      </c>
+      <c r="I28" s="1">
+        <v>103</v>
+      </c>
+      <c r="J28" s="1">
+        <v>103</v>
+      </c>
+      <c r="K28" s="1">
+        <v>103</v>
+      </c>
+      <c r="L28" s="1">
+        <v>103</v>
+      </c>
+      <c r="M28" s="1">
+        <v>103</v>
+      </c>
+      <c r="N28" s="1">
+        <v>103</v>
+      </c>
+      <c r="O28" s="1">
+        <v>103</v>
+      </c>
+      <c r="P28" s="1">
+        <v>103</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>103</v>
+      </c>
+      <c r="R28" s="1">
+        <v>103</v>
+      </c>
+      <c r="S28" s="1">
+        <v>103</v>
+      </c>
+      <c r="T28" s="1">
+        <v>103</v>
+      </c>
+      <c r="U28" s="1">
+        <v>103</v>
+      </c>
+      <c r="V28" s="1">
+        <v>103</v>
+      </c>
+      <c r="W28" s="1">
+        <v>103</v>
+      </c>
+      <c r="X28" s="1">
+        <v>103</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>103</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>103</v>
+      </c>
+      <c r="AZ28" s="8">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="2">
-        <v>112</v>
-      </c>
-      <c r="B29" s="2">
-        <v>112</v>
-      </c>
-      <c r="C29" s="2">
-        <v>112</v>
-      </c>
-      <c r="D29" s="2">
-        <v>112</v>
-      </c>
-      <c r="E29" s="2">
-        <v>112</v>
-      </c>
-      <c r="F29" s="2">
-        <v>112</v>
-      </c>
-      <c r="G29" s="2">
-        <v>112</v>
-      </c>
-      <c r="H29" s="2">
-        <v>112</v>
-      </c>
-      <c r="I29" s="2">
-        <v>112</v>
-      </c>
-      <c r="J29" s="2">
-        <v>112</v>
-      </c>
-      <c r="K29" s="2">
-        <v>112</v>
-      </c>
-      <c r="L29" s="2">
-        <v>112</v>
-      </c>
-      <c r="M29" s="2">
-        <v>112</v>
-      </c>
-      <c r="N29" s="2">
-        <v>112</v>
-      </c>
-      <c r="O29" s="2">
-        <v>112</v>
-      </c>
-      <c r="P29" s="2">
-        <v>112</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>112</v>
-      </c>
-      <c r="R29" s="2">
-        <v>112</v>
-      </c>
-      <c r="S29" s="2">
-        <v>112</v>
-      </c>
-      <c r="T29" s="2">
-        <v>112</v>
-      </c>
-      <c r="U29" s="2">
-        <v>112</v>
-      </c>
-      <c r="V29" s="2">
-        <v>112</v>
-      </c>
-      <c r="W29" s="2">
-        <v>112</v>
-      </c>
-      <c r="X29" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AH29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AI29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AM29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AP29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AQ29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AR29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AS29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AT29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AU29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AV29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AW29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AX29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AY29" s="2">
-        <v>112</v>
-      </c>
-      <c r="AZ29" s="2">
+      <c r="A29" s="7">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1">
+        <v>112</v>
+      </c>
+      <c r="E29" s="1">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1">
+        <v>112</v>
+      </c>
+      <c r="G29" s="1">
+        <v>112</v>
+      </c>
+      <c r="H29" s="1">
+        <v>112</v>
+      </c>
+      <c r="I29" s="1">
+        <v>112</v>
+      </c>
+      <c r="J29" s="1">
+        <v>112</v>
+      </c>
+      <c r="K29" s="1">
+        <v>112</v>
+      </c>
+      <c r="L29" s="1">
+        <v>112</v>
+      </c>
+      <c r="M29" s="1">
+        <v>112</v>
+      </c>
+      <c r="N29" s="1">
+        <v>112</v>
+      </c>
+      <c r="O29" s="1">
+        <v>112</v>
+      </c>
+      <c r="P29" s="1">
+        <v>112</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>112</v>
+      </c>
+      <c r="R29" s="1">
+        <v>112</v>
+      </c>
+      <c r="S29" s="1">
+        <v>112</v>
+      </c>
+      <c r="T29" s="1">
+        <v>112</v>
+      </c>
+      <c r="U29" s="1">
+        <v>112</v>
+      </c>
+      <c r="V29" s="1">
+        <v>112</v>
+      </c>
+      <c r="W29" s="1">
+        <v>112</v>
+      </c>
+      <c r="X29" s="1">
+        <v>112</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>112</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>112</v>
+      </c>
+      <c r="AZ29" s="8">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="2">
-        <v>112</v>
-      </c>
-      <c r="B30" s="2">
-        <v>112</v>
-      </c>
-      <c r="C30" s="2">
-        <v>112</v>
-      </c>
-      <c r="D30" s="2">
-        <v>112</v>
-      </c>
-      <c r="E30" s="2">
-        <v>112</v>
-      </c>
-      <c r="F30" s="2">
-        <v>112</v>
-      </c>
-      <c r="G30" s="2">
-        <v>112</v>
-      </c>
-      <c r="H30" s="2">
-        <v>112</v>
-      </c>
-      <c r="I30" s="2">
-        <v>112</v>
-      </c>
-      <c r="J30" s="2">
-        <v>112</v>
-      </c>
-      <c r="K30" s="2">
-        <v>112</v>
-      </c>
-      <c r="L30" s="2">
-        <v>112</v>
-      </c>
-      <c r="M30" s="2">
-        <v>112</v>
-      </c>
-      <c r="N30" s="2">
-        <v>112</v>
-      </c>
-      <c r="O30" s="2">
-        <v>112</v>
-      </c>
-      <c r="P30" s="2">
-        <v>112</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>112</v>
-      </c>
-      <c r="R30" s="2">
-        <v>112</v>
-      </c>
-      <c r="S30" s="2">
-        <v>112</v>
-      </c>
-      <c r="T30" s="2">
-        <v>112</v>
-      </c>
-      <c r="U30" s="2">
-        <v>112</v>
-      </c>
-      <c r="V30" s="2">
-        <v>112</v>
-      </c>
-      <c r="W30" s="2">
-        <v>112</v>
-      </c>
-      <c r="X30" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AH30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AI30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AR30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AU30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AV30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AW30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AX30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AY30" s="2">
-        <v>112</v>
-      </c>
-      <c r="AZ30" s="2">
+      <c r="A30" s="7">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1">
+        <v>112</v>
+      </c>
+      <c r="C30" s="1">
+        <v>112</v>
+      </c>
+      <c r="D30" s="1">
+        <v>112</v>
+      </c>
+      <c r="E30" s="1">
+        <v>112</v>
+      </c>
+      <c r="F30" s="1">
+        <v>112</v>
+      </c>
+      <c r="G30" s="1">
+        <v>112</v>
+      </c>
+      <c r="H30" s="1">
+        <v>112</v>
+      </c>
+      <c r="I30" s="1">
+        <v>112</v>
+      </c>
+      <c r="J30" s="1">
+        <v>112</v>
+      </c>
+      <c r="K30" s="1">
+        <v>112</v>
+      </c>
+      <c r="L30" s="1">
+        <v>112</v>
+      </c>
+      <c r="M30" s="1">
+        <v>112</v>
+      </c>
+      <c r="N30" s="1">
+        <v>112</v>
+      </c>
+      <c r="O30" s="1">
+        <v>112</v>
+      </c>
+      <c r="P30" s="1">
+        <v>112</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>112</v>
+      </c>
+      <c r="R30" s="1">
+        <v>112</v>
+      </c>
+      <c r="S30" s="1">
+        <v>112</v>
+      </c>
+      <c r="T30" s="1">
+        <v>112</v>
+      </c>
+      <c r="U30" s="1">
+        <v>112</v>
+      </c>
+      <c r="V30" s="1">
+        <v>112</v>
+      </c>
+      <c r="W30" s="1">
+        <v>112</v>
+      </c>
+      <c r="X30" s="1">
+        <v>112</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>112</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>112</v>
+      </c>
+      <c r="AZ30" s="8">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="2">
-        <v>112</v>
-      </c>
-      <c r="B31" s="2">
-        <v>112</v>
-      </c>
-      <c r="C31" s="2">
-        <v>112</v>
-      </c>
-      <c r="D31" s="2">
-        <v>112</v>
-      </c>
-      <c r="E31" s="2">
-        <v>112</v>
-      </c>
-      <c r="F31" s="2">
-        <v>112</v>
-      </c>
-      <c r="G31" s="2">
-        <v>112</v>
-      </c>
-      <c r="H31" s="2">
-        <v>112</v>
-      </c>
-      <c r="I31" s="2">
-        <v>112</v>
-      </c>
-      <c r="J31" s="2">
-        <v>112</v>
-      </c>
-      <c r="K31" s="2">
-        <v>112</v>
-      </c>
-      <c r="L31" s="2">
-        <v>112</v>
-      </c>
-      <c r="M31" s="2">
-        <v>112</v>
-      </c>
-      <c r="N31" s="2">
-        <v>112</v>
-      </c>
-      <c r="O31" s="2">
-        <v>112</v>
-      </c>
-      <c r="P31" s="2">
-        <v>112</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>112</v>
-      </c>
-      <c r="R31" s="2">
-        <v>112</v>
-      </c>
-      <c r="S31" s="2">
-        <v>112</v>
-      </c>
-      <c r="T31" s="2">
-        <v>112</v>
-      </c>
-      <c r="U31" s="2">
-        <v>112</v>
-      </c>
-      <c r="V31" s="2">
-        <v>112</v>
-      </c>
-      <c r="W31" s="2">
-        <v>112</v>
-      </c>
-      <c r="X31" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AH31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AI31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AT31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AU31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AV31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AW31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AX31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AY31" s="2">
-        <v>112</v>
-      </c>
-      <c r="AZ31" s="2">
+      <c r="A31" s="7">
+        <v>112</v>
+      </c>
+      <c r="B31" s="1">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1">
+        <v>112</v>
+      </c>
+      <c r="E31" s="1">
+        <v>112</v>
+      </c>
+      <c r="F31" s="1">
+        <v>112</v>
+      </c>
+      <c r="G31" s="1">
+        <v>112</v>
+      </c>
+      <c r="H31" s="1">
+        <v>112</v>
+      </c>
+      <c r="I31" s="1">
+        <v>112</v>
+      </c>
+      <c r="J31" s="1">
+        <v>112</v>
+      </c>
+      <c r="K31" s="1">
+        <v>112</v>
+      </c>
+      <c r="L31" s="1">
+        <v>112</v>
+      </c>
+      <c r="M31" s="1">
+        <v>112</v>
+      </c>
+      <c r="N31" s="1">
+        <v>112</v>
+      </c>
+      <c r="O31" s="1">
+        <v>112</v>
+      </c>
+      <c r="P31" s="1">
+        <v>112</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>112</v>
+      </c>
+      <c r="R31" s="1">
+        <v>112</v>
+      </c>
+      <c r="S31" s="1">
+        <v>112</v>
+      </c>
+      <c r="T31" s="1">
+        <v>112</v>
+      </c>
+      <c r="U31" s="1">
+        <v>112</v>
+      </c>
+      <c r="V31" s="1">
+        <v>112</v>
+      </c>
+      <c r="W31" s="1">
+        <v>112</v>
+      </c>
+      <c r="X31" s="1">
+        <v>112</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>112</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>112</v>
+      </c>
+      <c r="AZ31" s="8">
         <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="2">
-        <v>112</v>
-      </c>
-      <c r="B32" s="2">
-        <v>112</v>
-      </c>
-      <c r="C32" s="2">
-        <v>112</v>
-      </c>
-      <c r="D32" s="2">
-        <v>112</v>
-      </c>
-      <c r="E32" s="2">
-        <v>112</v>
-      </c>
-      <c r="F32" s="2">
-        <v>112</v>
-      </c>
-      <c r="G32" s="2">
-        <v>112</v>
-      </c>
-      <c r="H32" s="2">
-        <v>112</v>
-      </c>
-      <c r="I32" s="2">
-        <v>112</v>
-      </c>
-      <c r="J32" s="2">
-        <v>112</v>
-      </c>
-      <c r="K32" s="2">
-        <v>112</v>
-      </c>
-      <c r="L32" s="2">
-        <v>112</v>
-      </c>
-      <c r="M32" s="2">
-        <v>112</v>
-      </c>
-      <c r="N32" s="2">
-        <v>112</v>
-      </c>
-      <c r="O32" s="2">
-        <v>112</v>
-      </c>
-      <c r="P32" s="2">
-        <v>112</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>112</v>
-      </c>
-      <c r="R32" s="2">
-        <v>112</v>
-      </c>
-      <c r="S32" s="2">
-        <v>112</v>
-      </c>
-      <c r="T32" s="2">
-        <v>112</v>
-      </c>
-      <c r="U32" s="2">
-        <v>112</v>
-      </c>
-      <c r="V32" s="2">
-        <v>112</v>
-      </c>
-      <c r="W32" s="2">
-        <v>112</v>
-      </c>
-      <c r="X32" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AH32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AI32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AP32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AQ32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AR32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AS32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AT32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AU32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AV32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AW32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AX32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AY32" s="2">
-        <v>112</v>
-      </c>
-      <c r="AZ32" s="2">
+      <c r="A32" s="7">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1">
+        <v>112</v>
+      </c>
+      <c r="E32" s="1">
+        <v>112</v>
+      </c>
+      <c r="F32" s="1">
+        <v>112</v>
+      </c>
+      <c r="G32" s="1">
+        <v>112</v>
+      </c>
+      <c r="H32" s="1">
+        <v>112</v>
+      </c>
+      <c r="I32" s="1">
+        <v>112</v>
+      </c>
+      <c r="J32" s="1">
+        <v>112</v>
+      </c>
+      <c r="K32" s="1">
+        <v>112</v>
+      </c>
+      <c r="L32" s="1">
+        <v>112</v>
+      </c>
+      <c r="M32" s="1">
+        <v>112</v>
+      </c>
+      <c r="N32" s="1">
+        <v>112</v>
+      </c>
+      <c r="O32" s="1">
+        <v>112</v>
+      </c>
+      <c r="P32" s="1">
+        <v>112</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>112</v>
+      </c>
+      <c r="R32" s="1">
+        <v>112</v>
+      </c>
+      <c r="S32" s="1">
+        <v>112</v>
+      </c>
+      <c r="T32" s="1">
+        <v>112</v>
+      </c>
+      <c r="U32" s="1">
+        <v>112</v>
+      </c>
+      <c r="V32" s="1">
+        <v>112</v>
+      </c>
+      <c r="W32" s="1">
+        <v>112</v>
+      </c>
+      <c r="X32" s="1">
+        <v>112</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>112</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>112</v>
+      </c>
+      <c r="AZ32" s="8">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
-      <c r="A33" s="2">
-        <v>112</v>
-      </c>
-      <c r="B33" s="2">
-        <v>112</v>
-      </c>
-      <c r="C33" s="2">
-        <v>112</v>
-      </c>
-      <c r="D33" s="2">
-        <v>112</v>
-      </c>
-      <c r="E33" s="2">
-        <v>112</v>
-      </c>
-      <c r="F33" s="2">
-        <v>112</v>
-      </c>
-      <c r="G33" s="2">
-        <v>112</v>
-      </c>
-      <c r="H33" s="2">
-        <v>112</v>
-      </c>
-      <c r="I33" s="2">
-        <v>112</v>
-      </c>
-      <c r="J33" s="2">
-        <v>112</v>
-      </c>
-      <c r="K33" s="2">
-        <v>112</v>
-      </c>
-      <c r="L33" s="2">
-        <v>112</v>
-      </c>
-      <c r="M33" s="2">
-        <v>112</v>
-      </c>
-      <c r="N33" s="2">
-        <v>112</v>
-      </c>
-      <c r="O33" s="2">
-        <v>112</v>
-      </c>
-      <c r="P33" s="2">
-        <v>112</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>112</v>
-      </c>
-      <c r="R33" s="2">
-        <v>112</v>
-      </c>
-      <c r="S33" s="2">
-        <v>112</v>
-      </c>
-      <c r="T33" s="2">
-        <v>112</v>
-      </c>
-      <c r="U33" s="2">
-        <v>112</v>
-      </c>
-      <c r="V33" s="2">
-        <v>112</v>
-      </c>
-      <c r="W33" s="2">
-        <v>112</v>
-      </c>
-      <c r="X33" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AH33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AI33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AM33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AQ33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AR33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AU33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AV33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AW33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AX33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AY33" s="2">
-        <v>112</v>
-      </c>
-      <c r="AZ33" s="2">
+    <row r="33" spans="1:52" ht="18.600000000000001" thickBot="1">
+      <c r="A33" s="9">
+        <v>112</v>
+      </c>
+      <c r="B33" s="10">
+        <v>112</v>
+      </c>
+      <c r="C33" s="10">
+        <v>112</v>
+      </c>
+      <c r="D33" s="10">
+        <v>112</v>
+      </c>
+      <c r="E33" s="10">
+        <v>112</v>
+      </c>
+      <c r="F33" s="10">
+        <v>112</v>
+      </c>
+      <c r="G33" s="10">
+        <v>112</v>
+      </c>
+      <c r="H33" s="10">
+        <v>112</v>
+      </c>
+      <c r="I33" s="10">
+        <v>112</v>
+      </c>
+      <c r="J33" s="10">
+        <v>112</v>
+      </c>
+      <c r="K33" s="10">
+        <v>112</v>
+      </c>
+      <c r="L33" s="10">
+        <v>112</v>
+      </c>
+      <c r="M33" s="10">
+        <v>112</v>
+      </c>
+      <c r="N33" s="10">
+        <v>112</v>
+      </c>
+      <c r="O33" s="10">
+        <v>112</v>
+      </c>
+      <c r="P33" s="10">
+        <v>112</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>112</v>
+      </c>
+      <c r="R33" s="10">
+        <v>112</v>
+      </c>
+      <c r="S33" s="10">
+        <v>112</v>
+      </c>
+      <c r="T33" s="10">
+        <v>112</v>
+      </c>
+      <c r="U33" s="10">
+        <v>112</v>
+      </c>
+      <c r="V33" s="10">
+        <v>112</v>
+      </c>
+      <c r="W33" s="10">
+        <v>112</v>
+      </c>
+      <c r="X33" s="10">
+        <v>112</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>112</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AD33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AF33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AG33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AH33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AI33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AK33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AL33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AM33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AN33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AO33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AP33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AQ33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AR33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AS33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AT33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AU33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AV33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AW33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AX33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AY33" s="10">
+        <v>112</v>
+      </c>
+      <c r="AZ33" s="11">
         <v>112</v>
       </c>
     </row>
@@ -6260,26 +6265,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B4:B27 A25:AD27 AG25:AG27 AJ25:AJ27 AM25:AM27 A28:AZ31 A2:AZ24">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>101</formula>
+  <conditionalFormatting sqref="A2:AZ28">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>103</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AZ28">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>103</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>111</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>112</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>121</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>101</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TitleGround.xlsx
+++ b/Excel/TitleGround.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBB2FE-90C3-4C10-ACED-667B1383EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9929CBB9-4EE7-440F-8A5C-59B7A620DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,8 +615,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1209,10 +1209,10 @@
         <v>112</v>
       </c>
       <c r="AK4" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AL4" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AM4" s="1">
         <v>112</v>
@@ -1364,10 +1364,10 @@
         <v>112</v>
       </c>
       <c r="AJ5" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AK5" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AL5" s="1">
         <v>112</v>
@@ -1519,10 +1519,10 @@
         <v>112</v>
       </c>
       <c r="AI6" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AJ6" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AK6" s="1">
         <v>112</v>
@@ -1674,10 +1674,10 @@
         <v>112</v>
       </c>
       <c r="AH7" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AI7" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AJ7" s="1">
         <v>112</v>
@@ -1817,7 +1817,7 @@
         <v>101</v>
       </c>
       <c r="AC8" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD8" s="1">
         <v>112</v>
@@ -1829,10 +1829,10 @@
         <v>112</v>
       </c>
       <c r="AG8" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AH8" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AI8" s="1">
         <v>112</v>
@@ -1912,25 +1912,25 @@
         <v>101</v>
       </c>
       <c r="H9" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I9" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K9" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L9" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M9" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N9" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="O9" s="1">
         <v>101</v>
@@ -1975,7 +1975,7 @@
         <v>101</v>
       </c>
       <c r="AC9" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD9" s="1">
         <v>112</v>
@@ -1984,10 +1984,10 @@
         <v>112</v>
       </c>
       <c r="AF9" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AG9" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AH9" s="1">
         <v>112</v>
@@ -2070,25 +2070,25 @@
         <v>101</v>
       </c>
       <c r="H10" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I10" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J10" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K10" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L10" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M10" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N10" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="O10" s="1">
         <v>101</v>
@@ -2133,16 +2133,16 @@
         <v>101</v>
       </c>
       <c r="AC10" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD10" s="1">
         <v>112</v>
       </c>
       <c r="AE10" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AF10" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AG10" s="1">
         <v>112</v>
@@ -2228,25 +2228,25 @@
         <v>101</v>
       </c>
       <c r="H11" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I11" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J11" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K11" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L11" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M11" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N11" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="O11" s="1">
         <v>101</v>
@@ -2291,13 +2291,13 @@
         <v>101</v>
       </c>
       <c r="AC11" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD11" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AE11" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AF11" s="1">
         <v>112</v>
@@ -2386,25 +2386,25 @@
         <v>101</v>
       </c>
       <c r="H12" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I12" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J12" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K12" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L12" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M12" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N12" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="O12" s="1">
         <v>101</v>
@@ -2449,10 +2449,10 @@
         <v>101</v>
       </c>
       <c r="AC12" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD12" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AE12" s="1">
         <v>112</v>
@@ -2535,13 +2535,13 @@
         <v>112</v>
       </c>
       <c r="E13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G13" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H13" s="1">
         <v>121</v>
@@ -2607,7 +2607,7 @@
         <v>101</v>
       </c>
       <c r="AC13" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD13" s="1">
         <v>112</v>
@@ -2693,7 +2693,7 @@
         <v>112</v>
       </c>
       <c r="E14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1">
         <v>101</v>
@@ -2723,7 +2723,7 @@
         <v>101</v>
       </c>
       <c r="O14" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P14" s="1">
         <v>101</v>
@@ -2765,7 +2765,7 @@
         <v>101</v>
       </c>
       <c r="AC14" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD14" s="1">
         <v>112</v>
@@ -2851,7 +2851,7 @@
         <v>112</v>
       </c>
       <c r="E15" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F15" s="1">
         <v>101</v>
@@ -2863,25 +2863,25 @@
         <v>101</v>
       </c>
       <c r="I15" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J15" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N15" s="1">
         <v>101</v>
       </c>
       <c r="O15" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P15" s="1">
         <v>101</v>
@@ -2923,7 +2923,7 @@
         <v>101</v>
       </c>
       <c r="AC15" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD15" s="1">
         <v>112</v>
@@ -3009,7 +3009,7 @@
         <v>112</v>
       </c>
       <c r="E16" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1">
         <v>101</v>
@@ -3021,31 +3021,31 @@
         <v>101</v>
       </c>
       <c r="I16" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J16" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N16" s="1">
         <v>101</v>
       </c>
       <c r="O16" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="P16" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="R16" s="1">
         <v>101</v>
@@ -3081,7 +3081,7 @@
         <v>101</v>
       </c>
       <c r="AC16" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD16" s="1">
         <v>112</v>
@@ -3179,22 +3179,22 @@
         <v>101</v>
       </c>
       <c r="I17" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J17" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N17" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="O17" s="1">
         <v>101</v>
@@ -3203,16 +3203,16 @@
         <v>101</v>
       </c>
       <c r="Q17" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="R17" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S17" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T17" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U17" s="1">
         <v>101</v>
@@ -3239,7 +3239,7 @@
         <v>101</v>
       </c>
       <c r="AC17" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD17" s="1">
         <v>112</v>
@@ -3340,13 +3340,13 @@
         <v>101</v>
       </c>
       <c r="J18" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L18" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M18" s="1">
         <v>101</v>
@@ -3364,40 +3364,40 @@
         <v>121</v>
       </c>
       <c r="R18" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S18" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T18" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U18" s="1">
         <v>121</v>
       </c>
       <c r="V18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="W18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="X18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Y18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Z18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AA18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AB18" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AC18" s="1">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="AD18" s="1">
         <v>112</v>
@@ -3498,16 +3498,16 @@
         <v>101</v>
       </c>
       <c r="J19" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L19" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M19" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N19" s="1">
         <v>101</v>
@@ -3522,19 +3522,19 @@
         <v>101</v>
       </c>
       <c r="R19" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S19" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T19" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U19" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="V19" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="W19" s="1">
         <v>101</v>
@@ -3555,10 +3555,10 @@
         <v>101</v>
       </c>
       <c r="AC19" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD19" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AE19" s="1">
         <v>101</v>
@@ -3641,13 +3641,13 @@
         <v>112</v>
       </c>
       <c r="E20" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1">
         <v>121</v>
       </c>
       <c r="G20" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H20" s="1">
         <v>101</v>
@@ -3659,16 +3659,16 @@
         <v>101</v>
       </c>
       <c r="K20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O20" s="1">
         <v>101</v>
@@ -3680,13 +3680,13 @@
         <v>101</v>
       </c>
       <c r="R20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U20" s="1">
         <v>101</v>
@@ -3713,10 +3713,10 @@
         <v>101</v>
       </c>
       <c r="AC20" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD20" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AE20" s="1">
         <v>101</v>
@@ -3799,7 +3799,7 @@
         <v>112</v>
       </c>
       <c r="E21" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1">
         <v>121</v>
@@ -3820,61 +3820,61 @@
         <v>101</v>
       </c>
       <c r="L21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y21" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AA21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AB21" s="1">
         <v>101</v>
       </c>
       <c r="AC21" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD21" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AE21" s="1">
         <v>101</v>
@@ -3957,16 +3957,16 @@
         <v>112</v>
       </c>
       <c r="E22" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G22" s="1">
         <v>121</v>
       </c>
       <c r="H22" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I22" s="1">
         <v>101</v>
@@ -3981,43 +3981,43 @@
         <v>101</v>
       </c>
       <c r="M22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y22" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z22" s="1">
         <v>101</v>
@@ -4032,7 +4032,7 @@
         <v>101</v>
       </c>
       <c r="AD22" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AE22" s="1">
         <v>101</v>
@@ -4115,10 +4115,10 @@
         <v>112</v>
       </c>
       <c r="E23" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1">
         <v>121</v>
@@ -4142,40 +4142,40 @@
         <v>101</v>
       </c>
       <c r="N23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y23" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z23" s="1">
         <v>101</v>
@@ -4187,7 +4187,7 @@
         <v>101</v>
       </c>
       <c r="AC23" s="1">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="AD23" s="1">
         <v>101</v>
@@ -4273,19 +4273,19 @@
         <v>112</v>
       </c>
       <c r="E24" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G24" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H24" s="1">
         <v>121</v>
       </c>
       <c r="I24" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J24" s="1">
         <v>101</v>
@@ -4345,7 +4345,7 @@
         <v>101</v>
       </c>
       <c r="AC24" s="1">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="AD24" s="1">
         <v>101</v>
@@ -4431,13 +4431,13 @@
         <v>112</v>
       </c>
       <c r="E25" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G25" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H25" s="1">
         <v>121</v>
@@ -4446,7 +4446,7 @@
         <v>121</v>
       </c>
       <c r="J25" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K25" s="1">
         <v>101</v>
@@ -4503,10 +4503,10 @@
         <v>101</v>
       </c>
       <c r="AC25" s="1">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="AD25" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AE25" s="1">
         <v>112</v>
@@ -4589,16 +4589,16 @@
         <v>112</v>
       </c>
       <c r="E26" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G26" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H26" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I26" s="1">
         <v>121</v>
@@ -4658,16 +4658,16 @@
         <v>101</v>
       </c>
       <c r="AB26" s="1">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="AC26" s="1">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AD26" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AE26" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AF26" s="1">
         <v>112</v>
@@ -4747,70 +4747,70 @@
         <v>112</v>
       </c>
       <c r="E27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J27" s="1">
         <v>121</v>
       </c>
       <c r="K27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="O27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="P27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Q27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="R27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="S27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="T27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="U27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="V27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="W27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="X27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Y27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Z27" s="1">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AA27" s="1">
         <v>121</v>
@@ -4819,16 +4819,16 @@
         <v>121</v>
       </c>
       <c r="AC27" s="1">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AD27" s="1">
         <v>112</v>
       </c>
       <c r="AE27" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AF27" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AG27" s="1">
         <v>112</v>
